--- a/lab4/lab4.xlsx
+++ b/lab4/lab4.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\Для кодинга\mmda\data-analysis\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D22E518-6BCA-48C8-A003-6C251A618E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6C7FEB-BE78-426E-8C5D-8C461DE9D0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="j" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="lab4" sheetId="1" r:id="rId1"/>
+    <sheet name="Женины данные" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -187,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -196,12 +194,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -213,6 +205,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,7 +327,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$O$2:$O$22</c:f>
+              <c:f>'lab4'!$O$2:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -400,7 +399,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$M$2:$M$22</c:f>
+              <c:f>'lab4'!$M$2:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -506,7 +505,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$O$2:$O$22</c:f>
+              <c:f>'lab4'!$O$2:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -578,7 +577,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$N$2:$N$22</c:f>
+              <c:f>'lab4'!$N$2:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1026,7 +1025,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AC$2:$AC$101</c:f>
+              <c:f>'lab4'!$AC$2:$AC$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1335,7 +1334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AD$2:$AD$101</c:f>
+              <c:f>'lab4'!$AD$2:$AD$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1343,301 +1342,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1875028486689412</c:v>
+                  <c:v>1.9695603035084546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9724976654340876</c:v>
+                  <c:v>2.9581510234158266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9123611734763863</c:v>
+                  <c:v>3.1564765199609921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4235534362205726</c:v>
+                  <c:v>3.1740731707524925</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7273337190702267</c:v>
+                  <c:v>2.8668476053870049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7312563225754101</c:v>
+                  <c:v>2.5911201255266216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.297544717838452</c:v>
+                  <c:v>2.7667660062646635</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4386597498088638</c:v>
+                  <c:v>3.1417591403977094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9983969058509437</c:v>
+                  <c:v>3.2226437702694111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3219855099722286</c:v>
+                  <c:v>3.437285175708094</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2826343739961068</c:v>
+                  <c:v>3.3460662513994968</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0662539427132067</c:v>
+                  <c:v>2.7312769841910032</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5725093044434333</c:v>
+                  <c:v>2.6285245095916991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0738232121757587</c:v>
+                  <c:v>2.3339261978977661</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6032118798248236</c:v>
+                  <c:v>2.9912537776480468</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7077874532160733</c:v>
+                  <c:v>3.7232990109900546</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.2650509146620426</c:v>
+                  <c:v>3.7767061100321069</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2671468828141808</c:v>
+                  <c:v>3.1006459237330937</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8323520200082632</c:v>
+                  <c:v>2.6558746284827452</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7884824325736579</c:v>
+                  <c:v>2.4973523671514206</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7472334787741119</c:v>
+                  <c:v>2.6733566650643148</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8479929194744651</c:v>
+                  <c:v>2.9473015748321263</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7397082631219303</c:v>
+                  <c:v>3.1978613251306727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9260052889219348</c:v>
+                  <c:v>3.0394978010164322</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.7666280404727477</c:v>
+                  <c:v>2.4967844515554556</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.9771561224105367</c:v>
+                  <c:v>2.680904208320753</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.8380264230987473</c:v>
+                  <c:v>2.8370597178764148</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.4886333611997653</c:v>
+                  <c:v>2.8868602801272387</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.8609935574863332</c:v>
+                  <c:v>3.246581176867533</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.8365592040883714</c:v>
+                  <c:v>3.4130715331742985</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.1902087175645395</c:v>
+                  <c:v>3.1789849843634461</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.5596066665405099</c:v>
+                  <c:v>3.3290136018563565</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.559978555633553</c:v>
+                  <c:v>3.4892683560262001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3511899444327011</c:v>
+                  <c:v>3.098904824274952</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.7041318482961527</c:v>
+                  <c:v>3.6403883062206472</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.4771495137681736</c:v>
+                  <c:v>3.5339125968368461</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0040663702402046</c:v>
+                  <c:v>3.4800197287687005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.6891188334784575</c:v>
+                  <c:v>3.8360454002126652</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.2297212292877608</c:v>
+                  <c:v>3.0573970136908817</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.9034736159457064</c:v>
+                  <c:v>2.9443268463167893</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.3871896510018096</c:v>
+                  <c:v>3.2816240904234437</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.6598956858375908</c:v>
+                  <c:v>3.4057698141727046</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.3547646753333007</c:v>
+                  <c:v>2.9309316429970407</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.3456379034872628</c:v>
+                  <c:v>2.8934742157424269</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.6020455667352982</c:v>
+                  <c:v>2.9264116140001302</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.1242075873129584</c:v>
+                  <c:v>3.088591484162563</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.6900160933515616</c:v>
+                  <c:v>3.2029595126145041</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.676980854509079</c:v>
+                  <c:v>2.5323588819134111</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.2098811225221944</c:v>
+                  <c:v>2.6552973365504391</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.7956159894647978</c:v>
+                  <c:v>3.010018361332969</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.6478866851170926</c:v>
+                  <c:v>3.0951899585133749</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.7067719716873371</c:v>
+                  <c:v>2.888608874440624</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.4839328774437228</c:v>
+                  <c:v>3.0212771895877459</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.8234900638597416</c:v>
+                  <c:v>2.2934744420542401</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.4209654690030828</c:v>
+                  <c:v>2.4079100320981763</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.4140846052434237</c:v>
+                  <c:v>2.4400591990684388</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.7602474423092036</c:v>
+                  <c:v>2.403697072648129</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.3091469188993337</c:v>
+                  <c:v>3.2793379270511736</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.9616287237260419</c:v>
+                  <c:v>3.4765376086622419</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.0961844721072675</c:v>
+                  <c:v>4.1022641751748772</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.4775704353317236</c:v>
+                  <c:v>3.4826803842925891</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.3091936000131015</c:v>
+                  <c:v>2.7540852672155625</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.3456380836000652</c:v>
+                  <c:v>2.6811385149802986</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.5982070170328129</c:v>
+                  <c:v>2.4059011312238665</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.9083499636097243</c:v>
+                  <c:v>2.6323318824584758</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.1333886170997252</c:v>
+                  <c:v>2.49608693819714</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.8358098252197994</c:v>
+                  <c:v>2.1172837510382507</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.1746590192632436</c:v>
+                  <c:v>1.577102316738475</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.8779102954753926</c:v>
+                  <c:v>1.6988068812538395</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0028666722503679</c:v>
+                  <c:v>2.6899419061952545</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.2824809935308341</c:v>
+                  <c:v>2.8596733057940145</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.9379257831644165</c:v>
+                  <c:v>3.4151276803745376</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.1981171609826982</c:v>
+                  <c:v>2.7367747922083567</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.8971341523997578</c:v>
+                  <c:v>2.8358543709703121</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.2040753594522171</c:v>
+                  <c:v>2.438245070806917</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.8757790946081778</c:v>
+                  <c:v>2.2534450102167849</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8987289246000909</c:v>
+                  <c:v>1.8585546055808597</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.6423789293673077</c:v>
+                  <c:v>1.5356626479016748</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.2380029804884898</c:v>
+                  <c:v>2.025337261396587</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.7156869550337448</c:v>
+                  <c:v>2.8855149713640271</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.7483909983992185</c:v>
+                  <c:v>3.0531594091985936</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.7615970228165088</c:v>
+                  <c:v>2.8475090908168412</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.2039329415241391</c:v>
+                  <c:v>2.5602394494525065</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.1089073062394004</c:v>
+                  <c:v>3.4363032995408984</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3284087114276766</c:v>
+                  <c:v>3.9330593099841575</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.825911721669613</c:v>
+                  <c:v>4.5344109861940041</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.2772887660872945</c:v>
+                  <c:v>2.9705195820904646</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.5506355178530422</c:v>
+                  <c:v>2.4982080917342682</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8504864456359209</c:v>
+                  <c:v>3.808413802451919</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.9995482468083958</c:v>
+                  <c:v>4.3594357937337689</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8109147734019437</c:v>
+                  <c:v>2.9051426644107696</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3835548974087706</c:v>
+                  <c:v>2.4204347239998385</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.992221576518113</c:v>
+                  <c:v>1.5895713495748651</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1014391411423792</c:v>
+                  <c:v>5.1705405764651839</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.0059815210692311</c:v>
+                  <c:v>6.7307191653218892</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.195040929404974</c:v>
+                  <c:v>5.4738133886148832</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.51987287270767923</c:v>
+                  <c:v>2.6124788509493295</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.15002772641984524</c:v>
+                  <c:v>3.8444585383282623</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.44917367108014833</c:v>
+                  <c:v>2.3678584725115197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,7 +1676,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AC$2:$AC$101</c:f>
+              <c:f>'lab4'!$AC$2:$AC$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1986,7 +1985,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AE$2:$AE$101</c:f>
+              <c:f>'lab4'!$AE$2:$AE$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1994,301 +1993,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2031409389325236</c:v>
+                  <c:v>2.0375339282226448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0026913834335094</c:v>
+                  <c:v>3.2406112473005622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5771884942625891</c:v>
+                  <c:v>3.5669688835580349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8426266927517068</c:v>
+                  <c:v>3.6574290045474638</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.354258053763274</c:v>
+                  <c:v>2.8040703011691268</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4792635301446087</c:v>
+                  <c:v>2.5884367346021113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5288821692437797</c:v>
+                  <c:v>2.8321556437201272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7191468563730297</c:v>
+                  <c:v>2.8046383108642368</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4558943922300411</c:v>
+                  <c:v>3.2427744196502526</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0921738975490989</c:v>
+                  <c:v>3.3548451196549194</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9811071946359133</c:v>
+                  <c:v>3.2081937388922195</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2689207702645957</c:v>
+                  <c:v>3.0280734954561628</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5693975028909048</c:v>
+                  <c:v>2.3805413331366232</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5726482078364228</c:v>
+                  <c:v>2.6674404188389942</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3348081139233066</c:v>
+                  <c:v>2.7101659847561912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1141823574414413</c:v>
+                  <c:v>4.0703034044873476</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8101881724851556</c:v>
+                  <c:v>4.1181447704187146</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.4831923330310137</c:v>
+                  <c:v>3.3122237527959397</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.7548823100402307</c:v>
+                  <c:v>2.7769399594766186</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2685363785609778</c:v>
+                  <c:v>2.4291497109707429</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3674893921965841</c:v>
+                  <c:v>2.4458720800803526</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.557582649318654</c:v>
+                  <c:v>3.4543953422370666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0743447307470788</c:v>
+                  <c:v>3.5074286417305207</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.5416572521412215</c:v>
+                  <c:v>3.2948715747493647</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5573985417689964</c:v>
+                  <c:v>2.9392233236002006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7356491020229834</c:v>
+                  <c:v>2.7465423718920441</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.9147049672844192</c:v>
+                  <c:v>3.4150541615758185</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.8322597988181277</c:v>
+                  <c:v>3.4222471187323968</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.9269100038681239</c:v>
+                  <c:v>2.975577915665522</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.8743302440957379</c:v>
+                  <c:v>3.9397447509962982</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.9894171019663873</c:v>
+                  <c:v>3.9821962046096275</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.3071097423347906</c:v>
+                  <c:v>3.8491849347578158</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8657472715793486</c:v>
+                  <c:v>3.5062278465382053</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.613144128839175</c:v>
+                  <c:v>2.9222518096826033</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.0091351563998163</c:v>
+                  <c:v>3.7716486251389161</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.3226925152061955</c:v>
+                  <c:v>3.5091702377056126</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.9768981871314057</c:v>
+                  <c:v>3.2016122850212954</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.3706665478868141</c:v>
+                  <c:v>4.5011693484821871</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.6483956914228783</c:v>
+                  <c:v>3.6497023078904673</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.0944454896939892</c:v>
+                  <c:v>3.626779458436963</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.1578144714530105</c:v>
+                  <c:v>3.5824427158067293</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.8887720562119914</c:v>
+                  <c:v>3.1880126296519844</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.1464648894893892</c:v>
+                  <c:v>3.2294344630233676</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2735797939872313</c:v>
+                  <c:v>3.0764924035541337</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.3145119115758348</c:v>
+                  <c:v>2.804050130708966</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.0310134511373175</c:v>
+                  <c:v>3.7135067532652912</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.6941563848558849</c:v>
+                  <c:v>3.1587845799413659</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.7599246479625776</c:v>
+                  <c:v>2.7922094468621208</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.1532329699943404</c:v>
+                  <c:v>3.3582951531613743</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.2224607848182512</c:v>
+                  <c:v>3.3561422796129845</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.9803784477367357</c:v>
+                  <c:v>3.874630820758699</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3700242994611842</c:v>
+                  <c:v>2.6680227020146412</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.7344845017317483</c:v>
+                  <c:v>2.8224035746237162</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.8871339596318415</c:v>
+                  <c:v>2.2239354299503589</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.4729425406903278</c:v>
+                  <c:v>2.447978763208992</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.376588845935689</c:v>
+                  <c:v>2.6993988586211732</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.9768048089563197</c:v>
+                  <c:v>2.9299778705605517</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.857485740911589</c:v>
+                  <c:v>2.8550501589959243</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.5589997744049073</c:v>
+                  <c:v>3.7328302907451945</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.9081356795372408</c:v>
+                  <c:v>3.6432883068112178</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.0585126176484287</c:v>
+                  <c:v>3.8090051505171414</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.6340441107294161</c:v>
+                  <c:v>2.4360925382397722</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.7840870026639544</c:v>
+                  <c:v>2.0291377120203276</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.6032638285864715</c:v>
+                  <c:v>2.6482545950453305</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.5216847108200242</c:v>
+                  <c:v>2.5207897634550624</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.7510368095951705</c:v>
+                  <c:v>2.2195271383032438</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.3800412221935625</c:v>
+                  <c:v>2.0035161917650259</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.3321034539541339</c:v>
+                  <c:v>1.5467471711485927</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.9805106618110568</c:v>
+                  <c:v>1.7198218864599251</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.1496113640778263</c:v>
+                  <c:v>2.8675577156166985</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.7277058785481301</c:v>
+                  <c:v>2.1642287125046451</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7868702274765882</c:v>
+                  <c:v>3.11980845520976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.3738166263923808</c:v>
+                  <c:v>2.185883473172308</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9679146123713349</c:v>
+                  <c:v>2.3383022685912191</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.2891567967716049</c:v>
+                  <c:v>2.5792150824089157</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.886307397608773</c:v>
+                  <c:v>1.7961998579383385</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.5082852252395651</c:v>
+                  <c:v>2.1517494356877713</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.696023033069993</c:v>
+                  <c:v>1.8216956572499516</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.1290481444631975</c:v>
+                  <c:v>1.5720213572192847</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.5708038025309348</c:v>
+                  <c:v>3.0916681560558019</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0654529968964077</c:v>
+                  <c:v>3.3255858179350284</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9646435157013098</c:v>
+                  <c:v>3.1680678299712541</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.1284711609714535</c:v>
+                  <c:v>1.738582074703126</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.4378682065255894</c:v>
+                  <c:v>2.4488538332227114</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.4207561093868839</c:v>
+                  <c:v>4.1667469951823382</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.052122570574535</c:v>
+                  <c:v>4.5138891434357191</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8267641073497298</c:v>
+                  <c:v>3.1792650596718679</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.5555724113005935</c:v>
+                  <c:v>3.3518989335159626</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.0994987070328865</c:v>
+                  <c:v>2.8814812946060337</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.8420230306789254</c:v>
+                  <c:v>3.6137717480234466</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.0839721256548862</c:v>
+                  <c:v>3.5894970434409412</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.5719356244362563</c:v>
+                  <c:v>2.9703363942940726</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.0700125083322756</c:v>
+                  <c:v>2.0631699306212612</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.4428478046789044</c:v>
+                  <c:v>5.1288362116150124</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.3087341889714361</c:v>
+                  <c:v>4.1181284043469661</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.86294584681851061</c:v>
+                  <c:v>3.5309119988788642</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.13367316945833582</c:v>
+                  <c:v>1.78543452954002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.20934568251175484</c:v>
+                  <c:v>4.6665996409191388</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.45097758140577138</c:v>
+                  <c:v>2.3773679442886757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2328,7 +2327,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AC$2:$AC$101</c:f>
+              <c:f>'lab4'!$AC$2:$AC$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2637,7 +2636,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$N$2:$N$101</c:f>
+              <c:f>'lab4'!$N$2:$N$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3323,7 +3322,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AC$2:$AC$101</c:f>
+              <c:f>'lab4'!$AC$2:$AC$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3632,7 +3631,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AF$2:$AF$101</c:f>
+              <c:f>'lab4'!$AF$2:$AF$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3640,301 +3639,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.85689332911423088</c:v>
+                  <c:v>0.36104921604625573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1218588705376793</c:v>
+                  <c:v>-0.10751222851941833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.94568816309111314</c:v>
+                  <c:v>-0.1898035095757189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.4309896927505719</c:v>
+                  <c:v>-0.18150942728249175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.72899297218067005</c:v>
+                  <c:v>0.13149314150255176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.73162655198767013</c:v>
+                  <c:v>0.40850964506111831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.29762732718650131</c:v>
+                  <c:v>0.23315138438728722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.4386781824459236</c:v>
+                  <c:v>-0.14177757303476923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.99840101872820286</c:v>
+                  <c:v>-0.22264788314667028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.3219864276791902</c:v>
+                  <c:v>-0.43728609341505553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.2826345787642079</c:v>
+                  <c:v>-0.3460664561675979</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.0662539884031461</c:v>
+                  <c:v>0.26872297011905744</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.57250931463823695</c:v>
+                  <c:v>0.37147548021349719</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.0738232144505266</c:v>
+                  <c:v>0.66607379982746595</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.60321188033239315</c:v>
+                  <c:v>8.7462218443836726E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.70778745332932713</c:v>
+                  <c:v>-0.72329901110330841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.265050914687313</c:v>
+                  <c:v>-0.77670611005737733</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.26714688281981935</c:v>
+                  <c:v>-0.10064592373873227</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.83235202000952135</c:v>
+                  <c:v>0.34412537151599665</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21151756742606143</c:v>
+                  <c:v>0.50264763284829872</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.74723347877417456</c:v>
+                  <c:v>0.32664333493562259</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.84799291947447886</c:v>
+                  <c:v>5.2698425167859941E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.73970826312193338</c:v>
+                  <c:v>-0.19786132513067578</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.92600528892193568</c:v>
+                  <c:v>-3.9497801016433076E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.76662804047274768</c:v>
+                  <c:v>0.50321554844454441</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.97715612241053673</c:v>
+                  <c:v>0.31909579167924695</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.83802642309874731</c:v>
+                  <c:v>0.16294028212358524</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.4886333611997653</c:v>
+                  <c:v>0.11313971987276128</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.8609935574863332</c:v>
+                  <c:v>-0.246581176867533</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.8365592040883714</c:v>
+                  <c:v>-0.41307153317429846</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.1902087175645395</c:v>
+                  <c:v>-0.17898498436344612</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.55960666654050994</c:v>
+                  <c:v>-0.32901360185635653</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.55997855563355303</c:v>
+                  <c:v>-0.48926835602620011</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.35118994443270113</c:v>
+                  <c:v>-9.8904824274951952E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.70413184829615272</c:v>
+                  <c:v>-0.64038830622064724</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.47714951376817361</c:v>
+                  <c:v>-0.53391259683684611</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.0040663702402046</c:v>
+                  <c:v>-0.48001972876870047</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.31088116652154252</c:v>
+                  <c:v>-0.83604540021266516</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.22972122928776084</c:v>
+                  <c:v>-5.7397013690881682E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.652638405429359E-2</c:v>
+                  <c:v>5.5673153683210685E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.38718965100180958</c:v>
+                  <c:v>-0.28162409042344372</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.65989568583759084</c:v>
+                  <c:v>-0.40576981417270463</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.35476467533330069</c:v>
+                  <c:v>6.9068357002959324E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.34563790348726275</c:v>
+                  <c:v>0.10652578425757309</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.60204556673529819</c:v>
+                  <c:v>7.3588385999869832E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.1242075873129584</c:v>
+                  <c:v>-8.8591484162563017E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.69001609335156155</c:v>
+                  <c:v>-0.20295951261450407</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.676980854509079</c:v>
+                  <c:v>0.46764111808658892</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.2098811225221944</c:v>
+                  <c:v>0.34470266344956091</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.79561598946479783</c:v>
+                  <c:v>-1.0018361332968961E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.64788668511709258</c:v>
+                  <c:v>-9.5189958513374862E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.29322802831266293</c:v>
+                  <c:v>0.11139112555937603</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.48393287744372282</c:v>
+                  <c:v>-2.1277189587745937E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.17650993614025845</c:v>
+                  <c:v>0.70652555794575989</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.42096546900308285</c:v>
+                  <c:v>0.59208996790182367</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.41408460524342372</c:v>
+                  <c:v>0.55994080093156118</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.7602474423092036</c:v>
+                  <c:v>0.59630292735187096</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.30914691889933366</c:v>
+                  <c:v>-0.27933792705117355</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.8371276273958088E-2</c:v>
+                  <c:v>-0.47653760866224193</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-9.6184472107267549E-2</c:v>
+                  <c:v>-1.1022641751748772</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.47757043533172361</c:v>
+                  <c:v>-0.48268038429258908</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.30919360001310148</c:v>
+                  <c:v>0.24591473278443754</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.3456380836000652</c:v>
+                  <c:v>0.31886148501970135</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.59820701703281287</c:v>
+                  <c:v>0.59409886877613349</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.1650036390275691E-2</c:v>
+                  <c:v>0.36766811754152418</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.1333886170997252</c:v>
+                  <c:v>0.50391306180286</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.16419017478020059</c:v>
+                  <c:v>0.88271624896174927</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.1746590192632436</c:v>
+                  <c:v>1.422897683261525</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.87791029547539257</c:v>
+                  <c:v>1.3011931187461605</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.8666722503678521E-3</c:v>
+                  <c:v>0.31005809380474547</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.28248099353083411</c:v>
+                  <c:v>0.14032669420598554</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0620742168355835</c:v>
+                  <c:v>-0.41512768037453762</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.80188283901730184</c:v>
+                  <c:v>0.26322520779164327</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1028658476002422</c:v>
+                  <c:v>0.16414562902968788</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7959246405477829</c:v>
+                  <c:v>0.56175492919308301</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1242209053918222</c:v>
+                  <c:v>0.74655498978321511</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.1012710753999091</c:v>
+                  <c:v>1.1414453944191403</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.3576210706326923</c:v>
+                  <c:v>1.4643373520983252</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.76199701951151022</c:v>
+                  <c:v>0.97466273860341301</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.2843130449662552</c:v>
+                  <c:v>0.11448502863597287</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2516090016007815</c:v>
+                  <c:v>-5.3159409198593632E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.2384029771834912</c:v>
+                  <c:v>0.15249090918315877</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.7960670584758609</c:v>
+                  <c:v>0.43976055054749352</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.89109269376059963</c:v>
+                  <c:v>-0.43630329954089841</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.6715912885723234</c:v>
+                  <c:v>-0.93305930998415754</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.174088278330387</c:v>
+                  <c:v>-1.5344109861940041</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.72271123391270553</c:v>
+                  <c:v>2.9480417909535372E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.4493644821469578</c:v>
+                  <c:v>0.50179190826573183</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.1495135543640791</c:v>
+                  <c:v>-0.80841380245191896</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.5175319160417615E-4</c:v>
+                  <c:v>-1.3594357937337689</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.1890852265980563</c:v>
+                  <c:v>9.4857335589230374E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.61644510259122942</c:v>
+                  <c:v>0.5795652760001615</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.7784234818869535E-3</c:v>
+                  <c:v>1.4104286504251349</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.89856085885762083</c:v>
+                  <c:v>-2.1705405764651839</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.99401847893076889</c:v>
+                  <c:v>-3.7307191653218892</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.804959070595026</c:v>
+                  <c:v>-2.4738133886148832</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.4801271272923207</c:v>
+                  <c:v>0.38752114905067048</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.8499722735801547</c:v>
+                  <c:v>-0.84445853832826234</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.5508263289198516</c:v>
+                  <c:v>0.63214152748848029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3974,7 +3973,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AC$2:$AC$101</c:f>
+              <c:f>'lab4'!$AC$2:$AC$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4283,7 +4282,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AG$2:$AG$101</c:f>
+              <c:f>'lab4'!$AG$2:$AG$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4291,301 +4290,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.87253141937781331</c:v>
+                  <c:v>0.29307559133206551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.15205258853710113</c:v>
+                  <c:v>-0.3899724524041539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.61051548387731591</c:v>
+                  <c:v>-0.60029587317276167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.850062949281706</c:v>
+                  <c:v>-0.66486526107746302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.35591730687371737</c:v>
+                  <c:v>0.19427044572042984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.47963375955686871</c:v>
+                  <c:v>0.41119303598562862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.528964778591829</c:v>
+                  <c:v>0.16776174693182355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.71916528901008947</c:v>
+                  <c:v>0.19534325649870343</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.45589850510730034</c:v>
+                  <c:v>-0.2427785325275118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0921748152560604</c:v>
+                  <c:v>-0.35484603736188092</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.98110739940401448</c:v>
+                  <c:v>-0.20819394366032062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.2689208159545351</c:v>
+                  <c:v>-2.8073541146102166E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.56939751308570852</c:v>
+                  <c:v>0.61945865666857314</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.57264821011119071</c:v>
+                  <c:v>0.33255957888623788</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.3348081144308761</c:v>
+                  <c:v>0.28983401473623926</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.1141823575546952</c:v>
+                  <c:v>-1.0703034046006015</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.81018817251042607</c:v>
+                  <c:v>-1.1181447704439851</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.48319233303665232</c:v>
+                  <c:v>-0.31222375280157832</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.75488231004148876</c:v>
+                  <c:v>0.22306004052212325</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.26853637856125845</c:v>
+                  <c:v>0.57085028902897639</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.36748939219664667</c:v>
+                  <c:v>0.55412791991958477</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.55758264931866774</c:v>
+                  <c:v>-0.45439534223708034</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.0743447307470819</c:v>
+                  <c:v>-0.50742864173052382</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.5416572521412224</c:v>
+                  <c:v>-0.29487157474936554</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.55739854176899639</c:v>
+                  <c:v>6.0776676399799445E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.73564910202298339</c:v>
+                  <c:v>0.25345762810795591</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.91470496728441919</c:v>
+                  <c:v>-0.41505416157581854</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.83225979881812773</c:v>
+                  <c:v>-0.42224711873239684</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.9269100038681239</c:v>
+                  <c:v>2.4422084334478011E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.8743302440957379</c:v>
+                  <c:v>-0.93974475099629817</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.98941710196638732</c:v>
+                  <c:v>-0.98219620460962753</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.3071097423347906</c:v>
+                  <c:v>-0.84918493475781576</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.86574727157934861</c:v>
+                  <c:v>-0.50622784653820529</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.38685587116082498</c:v>
+                  <c:v>7.7748190317396659E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.0091351563998163</c:v>
+                  <c:v>-0.77164862513891608</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.32269251520619546</c:v>
+                  <c:v>-0.50917023770561265</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.97689818713140575</c:v>
+                  <c:v>-0.20161228502129536</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.62933345211318592</c:v>
+                  <c:v>-1.5011693484821871</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.35160430857712166</c:v>
+                  <c:v>-0.64970230789046735</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.90555451030601075</c:v>
+                  <c:v>-0.62677945843696303</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.15781447145301053</c:v>
+                  <c:v>-0.58244271580672935</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1112279437880086</c:v>
+                  <c:v>-0.1880126296519844</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.14646488948938918</c:v>
+                  <c:v>-0.22943446302336756</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.72642020601276869</c:v>
+                  <c:v>-7.649240355413367E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.3145119115758348</c:v>
+                  <c:v>0.19594986929103397</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.0310134511373175</c:v>
+                  <c:v>-0.71350675326529123</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.69415638485588493</c:v>
+                  <c:v>-0.15878457994136586</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.7599246479625776</c:v>
+                  <c:v>0.2077905531378792</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.15323296999434044</c:v>
+                  <c:v>-0.35829515316137428</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.2224607848182512</c:v>
+                  <c:v>-0.3561422796129845</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.98037844773673566</c:v>
+                  <c:v>-0.87463082075869902</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.6299757005388158</c:v>
+                  <c:v>0.3319772979853588</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.73448450173174828</c:v>
+                  <c:v>0.17759642537628384</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1128660403681585</c:v>
+                  <c:v>0.77606457004964113</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.47294254069032782</c:v>
+                  <c:v>0.55202123679100801</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.37658884593568898</c:v>
+                  <c:v>0.30060114137882676</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.97680480895631971</c:v>
+                  <c:v>7.00221294394483E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.14251425908841098</c:v>
+                  <c:v>0.14494984100407571</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.44100022559509267</c:v>
+                  <c:v>-0.73283029074519446</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.90813567953724084</c:v>
+                  <c:v>-0.64328830681121785</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-5.8512617648428744E-2</c:v>
+                  <c:v>-0.80900515051714139</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.63404411072941613</c:v>
+                  <c:v>0.56390746176022777</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.78408700266395437</c:v>
+                  <c:v>0.97086228797967244</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.60326382858647154</c:v>
+                  <c:v>0.35174540495466955</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.52168471082002421</c:v>
+                  <c:v>0.47921023654493755</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.7510368095951705</c:v>
+                  <c:v>0.78047286169675623</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.38004122219356251</c:v>
+                  <c:v>0.99648380823497407</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.3321034539541339</c:v>
+                  <c:v>1.4532528288514073</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.9489338188943162E-2</c:v>
+                  <c:v>1.2801781135400749</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.14961136407782627</c:v>
+                  <c:v>0.13244228438330152</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.72770587854813007</c:v>
+                  <c:v>0.8357712874953549</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.2131297725234118</c:v>
+                  <c:v>-0.11980845520976002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.62618337360761922</c:v>
+                  <c:v>0.81411652682769198</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0320853876286651</c:v>
+                  <c:v>0.66169773140878085</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7108432032283951</c:v>
+                  <c:v>0.42078491759108427</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.113692602391227</c:v>
+                  <c:v>1.2038001420616615</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.4917147747604349</c:v>
+                  <c:v>0.84825056431222867</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.303976966930007</c:v>
+                  <c:v>1.1783043427500484</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.87095185553680254</c:v>
+                  <c:v>1.4279786427807153</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.4291961974690652</c:v>
+                  <c:v>-9.1668156055801919E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.93454700310359229</c:v>
+                  <c:v>-0.32558581793502839</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0353564842986902</c:v>
+                  <c:v>-0.16806782997125413</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8715288390285465</c:v>
+                  <c:v>1.261417925296874</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.56213179347441056</c:v>
+                  <c:v>0.55114616677728856</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.5792438906131161</c:v>
+                  <c:v>-1.1667469951823382</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.94787742942546505</c:v>
+                  <c:v>-1.5138891434357191</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1732358926502702</c:v>
+                  <c:v>-0.1792650596718679</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.4444275886994065</c:v>
+                  <c:v>-0.35189893351596258</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.9005012929671135</c:v>
+                  <c:v>0.11851870539396625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.15797696932107463</c:v>
+                  <c:v>-0.61377174802344658</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.91602787434511379</c:v>
+                  <c:v>-0.58949704344094123</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.42806437556374366</c:v>
+                  <c:v>2.9663605705927409E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-7.0012508332275569E-2</c:v>
+                  <c:v>0.93683006937873881</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.55715219532109561</c:v>
+                  <c:v>-2.1288362116150124</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.69126581102856388</c:v>
+                  <c:v>-1.1181284043469661</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.1370541531814893</c:v>
+                  <c:v>-0.5309119988788642</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.8663268305416643</c:v>
+                  <c:v>1.21456547045998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.790654317488245</c:v>
+                  <c:v>-1.6665996409191388</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.5490224185942285</c:v>
+                  <c:v>0.62263205571132429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4903,309 +4902,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$2:$L$101</c:f>
+              <c:f>'lab4'!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.1102174896462658</c:v>
+                  <c:v>-2.5027659522853325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4908407454760246</c:v>
+                  <c:v>3.1424180402721662</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0141608185926381</c:v>
+                  <c:v>0.50459725849219539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.1323175232517011</c:v>
+                  <c:v>-1.1126431720473939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20676654037125855</c:v>
+                  <c:v>-0.99671734735422546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0970024648089634</c:v>
+                  <c:v>-1.2387454402006561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7026078049131317</c:v>
+                  <c:v>0.33765419372775973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.1505088512547585</c:v>
+                  <c:v>1.2577726165402425</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.60195673917865933</c:v>
+                  <c:v>1.4576390101830086</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.0285680371127546</c:v>
+                  <c:v>-1.1952878048126732</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.066868009262999</c:v>
+                  <c:v>0.78469825639096713</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0222978006613317</c:v>
+                  <c:v>1.5529850778518617</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.934968072001312</c:v>
+                  <c:v>-7.6270366006175649E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2113762964183421</c:v>
+                  <c:v>3.7129261953498709</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.23237947598116815</c:v>
+                  <c:v>-0.67451742115311053</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.75795232203760077</c:v>
+                  <c:v>0.53013880858590501</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4504118726281749</c:v>
+                  <c:v>1.0910081477162052</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10301584722784174</c:v>
+                  <c:v>0.55235629129613084</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64698637767299527</c:v>
+                  <c:v>-2.8152075361672266</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96810263596343804</c:v>
+                  <c:v>-0.22984853153774315</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.1727265676283873</c:v>
+                  <c:v>-0.49636895643929502</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4.4621730056891629E-2</c:v>
+                  <c:v>-2.1478651429937399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.0591655155019575</c:v>
+                  <c:v>-0.19957714706509389</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.8705683533210125</c:v>
+                  <c:v>2.6125749986580176</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5961720038606382</c:v>
+                  <c:v>0.45968168611833188</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25616840782827038</c:v>
+                  <c:v>1.8229128454026342</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.9596099014804857</c:v>
+                  <c:v>0.54581434114337646</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65751769582995223</c:v>
+                  <c:v>-8.2457380971005731E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.924242320879535</c:v>
+                  <c:v>-4.0470126428283368</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.6286519703096438</c:v>
+                  <c:v>-2.7494790974729471</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-5.0499393825386472</c:v>
+                  <c:v>-2.4345008671850188E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.8820419142884672</c:v>
+                  <c:v>-1.820970287786537</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.35186387257152479</c:v>
+                  <c:v>-2.1881380065883076</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.0702715364081419</c:v>
+                  <c:v>-0.50638625126508008</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.0336269373190037</c:v>
+                  <c:v>-2.3126678782868875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7002757345388217</c:v>
+                  <c:v>-1.4115314557221814E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.64984458423333347</c:v>
+                  <c:v>1.2080090147514597</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3169642421012184</c:v>
+                  <c:v>1.0272693016820846</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.58799604817936091</c:v>
+                  <c:v>3.489687578147131</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.0823590153575031</c:v>
+                  <c:v>-0.34926045296278596</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.72303699271616062</c:v>
+                  <c:v>0.25242172748458508</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2971699324284871</c:v>
+                  <c:v>0.13740130455787758</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-4.1968322441844064E-2</c:v>
+                  <c:v>-1.2243466405524812</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.17008544326063629</c:v>
+                  <c:v>-2.1622847655146327</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-7.9191678038729348E-3</c:v>
+                  <c:v>1.9525761119533098</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.60686066289713281</c:v>
+                  <c:v>1.5462185811337217</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.950144920000175</c:v>
+                  <c:v>-2.2848191751059259</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.15579374179796518</c:v>
+                  <c:v>-2.1050757359868375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.2417479223754964</c:v>
+                  <c:v>-3.6059506154043905</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0546644078563809</c:v>
+                  <c:v>-1.9425424885863132</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.1553468511550755</c:v>
+                  <c:v>-0.25947826918450023</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.8628393142892943</c:v>
+                  <c:v>-0.83495830374838831</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1303225684635669</c:v>
+                  <c:v>-3.2669842977582011</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.74683338787942799</c:v>
+                  <c:v>-2.314767249953857</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.9962443394539449</c:v>
+                  <c:v>-2.638825265333042</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.91602919431592711</c:v>
+                  <c:v>-1.7342143918381732</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.0510005969879026E-3</c:v>
+                  <c:v>-0.17568333374676179</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.49331734309015618</c:v>
+                  <c:v>-0.84350032222472127</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.7752346264917742</c:v>
+                  <c:v>1.8596412492321486</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.95156786883361233</c:v>
+                  <c:v>4.5129321456433114E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.266386506432255</c:v>
+                  <c:v>-2.5560540985066691</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.1411674635838391E-4</c:v>
+                  <c:v>-2.7104264119617971</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.0150191983798122</c:v>
+                  <c:v>-0.6782283104913247</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-3.3369898746054538</c:v>
+                  <c:v>2.6777426256506853</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.6907377331170825</c:v>
+                  <c:v>3.0111723390042564</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.1633326039379157</c:v>
+                  <c:v>1.6738715515738287</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.6741136269229403</c:v>
+                  <c:v>-1.6232871315782149</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.28811850431827024</c:v>
+                  <c:v>-1.4402361377840522</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-4.0907960119536213</c:v>
+                  <c:v>-1.6752466221328146</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.58541227185437195</c:v>
+                  <c:v>0.21589762394839135</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.27176366736080643</c:v>
+                  <c:v>1.4858599857113173</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9936061757529484</c:v>
+                  <c:v>1.1355523279312747</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-1.7467209715102143</c:v>
+                  <c:v>-0.67169521898216411</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.1321684528380325</c:v>
+                  <c:v>-2.8123489787697928</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3228495781622271</c:v>
+                  <c:v>-0.7948592546273433</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.568636033814804</c:v>
+                  <c:v>-1.4594246930427215</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.2180694947710671</c:v>
+                  <c:v>-1.2071946380943575</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.5091087366095857</c:v>
+                  <c:v>0.22566780735688574</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.0256235613026123</c:v>
+                  <c:v>0.46701260208048423</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.7413180608408213</c:v>
+                  <c:v>0.93202201243445093</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0087025988527851</c:v>
+                  <c:v>-0.38145704648637113</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.5824274701832504</c:v>
+                  <c:v>1.4670723545562834</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.63551424132774126</c:v>
+                  <c:v>0.40946108771949652</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.59531552256470899</c:v>
+                  <c:v>-1.7120171423530628</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-1.5114478792964403</c:v>
+                  <c:v>1.1900008734269867</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.864975965527101E-2</c:v>
+                  <c:v>0.29167978087136553</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.277804227129985</c:v>
+                  <c:v>0.67183079689673397</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.29895304323027072</c:v>
+                  <c:v>-1.8347070460930868</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.2331806702380779</c:v>
+                  <c:v>-1.4705189629851358</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.513214045142367</c:v>
+                  <c:v>1.7343646782696192</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.4412518115125472</c:v>
+                  <c:v>2.6431185079913559</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0055692181956</c:v>
+                  <c:v>0.42345659306673755</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.1409460434515357</c:v>
+                  <c:v>0.51487477532034298</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.1879404658481327</c:v>
+                  <c:v>-0.20823177609240878</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.8937147290314349</c:v>
+                  <c:v>2.0003139185835273</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.4144198952312148</c:v>
+                  <c:v>-0.92185618701873051</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.3130780599611966</c:v>
+                  <c:v>-3.9862202009741905</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.64924201444835017</c:v>
+                  <c:v>-3.1490457927902806</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.6378612907929813</c:v>
+                  <c:v>-0.67416599926342857</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0580293603043076</c:v>
+                  <c:v>-0.32659570503374391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7584,8 +7583,8 @@
       <xdr:rowOff>162984</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2921000" cy="529312"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -7805,7 +7804,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -7907,8 +7906,8 @@
       <xdr:rowOff>790575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3183115" cy="724878"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -8518,7 +8517,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -8701,8 +8700,8 @@
       <xdr:rowOff>100806</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3175000" cy="423069"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -9082,7 +9081,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -9746,105 +9745,13 @@
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
-                <a:t>Были построены классическая и робастная оценки семивариограммы. Из графического представления оценок нельзя сделать какого-либо вывода о том, какая из оценок лучше описывает поведение семивариограммы, они довольно похожи. Робастные оценки устойчивы к отклонениям от однородности в выборке (в нашем случае отклонениям от нормального распределения). Тем не менее, для наших наблюдений заметной разницы между классической и робастной оценкой не наблюдается.</a:t>
+                <a:t>Были построены классическая и робастная оценки семивариограммы. Из графического представления оценок сложно сделать какой-либо вывод о том, какая из оценок лучше описывает поведение семивариограммы, они довольно похожи. Робастные оценки устойчивы к отклонениям от однородности в выборке (в нашем случае отклонениям от нормального распределения). Тем не менее, для наших наблюдений заметной разницы между классической и робастной оценкой не наблюдается.</a:t>
               </a:r>
             </a:p>
             <a:p>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
-                <a:t>Также, как видно из графика оценок и из графика отклонений, начиная примерно с семидесятого лага обе оценки имеют очень большое отклонение и плохо отражают истинное поведение семивариограммы, которая к этому моменту очень близка к значению</a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑅</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝜉</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:d>
-                    <m:dPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:dPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>0</m:t>
-                      </m:r>
-                    </m:e>
-                  </m:d>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
-                <a:t>. Обычно рекомендуется считать лаги до </a:t>
+                <a:t>Также, как видно из графика оценок и из графика отклонений, начиная примерно с 80-го лага обе оценки имеют довольно большое отклонение и плохо отражают истинное поведение семивариограммы. Обычно рекомендуется считать лаги до </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -9887,7 +9794,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
-                <a:t>из-за того, что для бОльших лагов оценка строится по малому количеству наблюдений.</a:t>
+                <a:t>из-за того, что для бОльших лагов оценка строится по малому количеству наблюдений. Однако, на последних лагах робастная оценка ведёт себя немного лучше классической.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9999,53 +9906,13 @@
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
-                <a:t>Были построены классическая и робастная оценки семивариограммы. Из графического представления оценок нельзя сделать какого-либо вывода о том, какая из оценок лучше описывает поведение семивариограммы, они довольно похожи. Робастные оценки устойчивы к отклонениям от однородности в выборке (в нашем случае отклонениям от нормального распределения). Тем не менее, для наших наблюдений заметной разницы между классической и робастной оценкой не наблюдается.</a:t>
+                <a:t>Были построены классическая и робастная оценки семивариограммы. Из графического представления оценок сложно сделать какой-либо вывод о том, какая из оценок лучше описывает поведение семивариограммы, они довольно похожи. Робастные оценки устойчивы к отклонениям от однородности в выборке (в нашем случае отклонениям от нормального распределения). Тем не менее, для наших наблюдений заметной разницы между классической и робастной оценкой не наблюдается.</a:t>
               </a:r>
             </a:p>
             <a:p>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
-                <a:t>Также, как видно из графика оценок и из графика отклонений, начиная примерно с семидесятого лага обе оценки имеют очень большое отклонение и плохо отражают истинное поведение семивариограммы, которая к этому моменту очень близка к значению</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑅〗_𝜉 (0)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
-                <a:t>. Обычно рекомендуется считать лаги до </a:t>
+                <a:t>Также, как видно из графика оценок и из графика отклонений, начиная примерно с 80-го лага обе оценки имеют довольно большое отклонение и плохо отражают истинное поведение семивариограммы. Обычно рекомендуется считать лаги до </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1200" i="0" baseline="0">
@@ -10059,7 +9926,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1200" baseline="0"/>
-                <a:t>из-за того, что для бОльших лагов оценка строится по малому количеству наблюдений.</a:t>
+                <a:t>из-за того, что для бОльших лагов оценка строится по малому количеству наблюдений. Однако, на последних лагах робастная оценка ведёт себя немного лучше классической.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -10369,1556 +10236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1C19CD-B9B1-438A-B656-93CAFF669032}">
-  <dimension ref="A1:A100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection sqref="A1:A100"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>-1.482344487158116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2.1919549908488989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>-0.11642555364232976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-0.72568468567624222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-0.44329567572276574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>-0.60196498452569358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.36369442568684462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.70033365773269907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.69711177275166847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>-0.90058392743230797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0.62272761169879232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0.8161032383213751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>-0.25041003937076312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2.2091808205004781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>-0.89019067672779784</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0.40313352656085044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0.57612396631157026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0.18296759662916884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>-1.7403954188921489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0.23591155695612542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>-0.26361476557212882</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>-1.2065447663189843</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0.16564740690228064</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1.573757799633313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>-7.3006276579690166E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1.0189296517637558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>8.236725079768803E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>-0.12097075341443997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>-2.3860775399953127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>-1.0936309990938753</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0.34894128475571051</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>-1.0753115020634141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>-1.0553435458859894</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>-1.0747953638201579E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>-1.3028306966589298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0.29727289074799046</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>0.71734802986611612</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0.44878788685309701</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1.9311210053274408</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>-0.66804432208300568</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>0.19566186892916448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>4.8021320253610611E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>-0.74331751420686487</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>-1.1188785720150918</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>1.4422357708099298</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>0.657753389532445</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>-1.5576006262563169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>-0.94484676083084196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>-1.8575428839540109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>-0.67398559622233734</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>0.10303438102710061</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>-0.46023956201679539</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>-1.8246328181703575</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>-0.93924427346792072</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>-1.2570194485306274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>-0.6784080142097082</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>0.12513282854342833</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>-0.47637286115786992</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>1.212906681757886</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>-0.21903360902797431</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>-1.519870238553267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>-1.2675400284933858</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>-4.350340532255359E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>1.6756121112848632</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>1.4295846995082684</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>0.59346007219573949</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>-1.1826568879769184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>-0.63849938669591211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>-0.80188328865915537</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>0.34926642911159433</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>0.8515166882716585</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>0.4762023309012875</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>-0.54790348258393351</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>-1.5769364836160094</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>-9.9112185125704855E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>-0.75934622145723552</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>-0.52212840273568872</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>0.29319721761567052</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>0.24678001864231192</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>0.49030177251552232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>-0.34910272006527521</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>0.91933316070935689</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>4.8634092308930121E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>-1.0681105777621269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>0.93107018983573653</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>1.54909685079474E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>0.3593663677747827</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>-1.1754514162021223</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>-0.6284949449764099</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>1.2215718925290275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>1.3362659956328571</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>-9.8498276202008128E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>0.24898895389924292</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>-0.19137587514705956</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>1.2122700354666449</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>-0.81035295806941576</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>-2.2391395759768784</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>-1.3383214536588639</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>1.6868852981133386E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>-0.10434177966089919</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E148AF2-29B9-421C-BAF2-CAC7CA741A44}">
-  <dimension ref="A1:A100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A100"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>-0.13817384569847491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>-1.4591068975278176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1.4413717508432455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-2.5450572138652205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.90564526544767432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.88950855570146814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-0.63288212004408706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1.3080307326163165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.23410279936797451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>-0.17138859220722225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>-2.4443806978524663E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>-0.7521202860516496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1.1109045772172976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>-0.98655164038063958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0.9958034752344247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1.7970432963920757</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>-1.5191426427918486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>-2.3531174520030618</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1.7023648979375139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0.55395730669260956</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>-0.37196173252596054</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>-1.1338829608575907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1.2014925232506357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>-0.57874558478943072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1.2787222658516839</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0.54399606597144157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0.13948692867415957</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1.4899615052854642</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>-0.43008412831113674</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>-1.0770872904686257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>-0.33855258152470924</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>-0.88780552687239833</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>-0.27162286642123945</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>0.78532366387662478</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>-1.421972228854429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0.9476002560404595</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>-1.3517410479835235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>-1.6596368368482217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>0.2975923507619882</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>-1.5957812138367444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>-0.42882561501755845</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>-1.0700091479520779</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>-2.4077235138975084</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>-0.34049776331812609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>-0.15085106497281231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>-0.77010554377920926</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>-1.8640184862306342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>-0.91026549853268079</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>-0.33321157388854772</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>-0.7184371497714892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>0.84559587776311673</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.62998765315569472</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>-0.94963979790918529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>-0.61975924836588092</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1.3222006600699387</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>-0.55904820328578353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>-2.0158950064796954E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>0.27225723897572607</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>-0.60315869632177055</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>-0.98929376690648496</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>0.19036292542295996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>-0.27940927793679293</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>-0.25918097890098579</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>0.39410679164575413</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>0.39410679164575413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>-1.6981448425212875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>-1.1610700312303379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>-0.38807797864137683</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>-1.1046859071939252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>-0.38642838262603618</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>0.24228711481555365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>1.097673703043256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>6.0049387684557587E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>-0.32981688491418026</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>0.18903847376350313</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>0.12474743016355205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>-0.47149455895123538</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>-1.4857960195513442</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>0.63896891333570238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>-0.85967940322007053</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>-0.67686869442695752</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>1.0386679605289828</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>-1.0340863809688017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>-0.67110818235960323</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>2.9111788535374217E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>1.0440612641104963</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>0.10464873412274756</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>0.2894455519708572</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>0.39228780224220827</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>-0.74796389526454732</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>0.15394789443234913</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>-1.3884573490940966E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>-1.5323712432291359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>-0.72767761594150215</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>0.39923747863213066</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>-0.23143002181313932</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>-1.1109045772172976</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>-0.29871216611354612</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>0.60802904044976458</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>0.89932427727035247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6508FDC5-7557-4B71-9CCF-484E963EAE80}">
-  <dimension ref="A1:A100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A100"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>-0.22467816052085254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1.8666378309717402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.54665974857925903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.43478848965605721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4.1665089156595059E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9.2950358521193266E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-0.5879951459064614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>-0.68497001848299988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>-8.3518898463808E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1.4491979527520016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>-0.83687837104662322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1.1513702702359296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>-6.073832992115058E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1.6611556930001825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0.70307351052179001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1.4660190572612919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>-0.65794210968306288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>-0.16138301361934282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1.341325059911469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>-0.13346380001166835</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>-0.1603757482371293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0.62672597778146155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>-0.40504346543457359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0.25981421458709519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>-0.55146301747299731</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>-0.98121518021798693</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>-0.78563516581198201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>-1.2804571269953158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0.40595750760985538</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>1.0093344826600514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0.66708935264614411</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>-1.7562661014380865</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>-4.7025423555169255E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>0.56819544624886476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>-0.51521510613383725</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>-0.60894990383530967</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>1.1082147466368042</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2.5150438887067139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>-1.0621761248330586</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>0.7703124538238626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>-1.5892555893515237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>1.0875282896449789</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>-2.635715645737946E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>-1.1763677321141586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>-0.69535644797724672</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>0.41427824726270046</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>-1.652101673244033</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>-0.1350076672679279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>0.29239799914648756</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>-0.29343709684326313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>0.47834532779233996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>-1.0061557986773551</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>9.9496446637203917E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>0.63643710745964199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>-0.39410679164575413</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>0.49686832426232286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>-0.50902258408314083</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>0.12497821444412693</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>1.8511354937800206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>3.5572611523093656E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>-0.49142272473545745</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>0.93189555627759546</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>-0.17402953744749539</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>0.68777808337472379</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>-1.1649831321847159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>-0.82628503150772303</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>-0.51381789489823859</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>0.69107727540540509</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>-0.5648712431138847</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>-1.1069414540543221</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>-5.882270670554135E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>0.42388251131342258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>-0.4305877610022435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>3.4447111829649657E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>-0.34504068935348187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>2.5668214220786467E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>1.0299163477611728</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>-1.8627179088070989</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>0.96768644652911462</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>-1.6749891074141487</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>-1.8490209185983986</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>-0.70395572038250975</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>-1.2813643479603343E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>-6.0432512327679433E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>0.4002322384621948</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>-0.87910393631318584</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>0.1145008354797028</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>0.17837919585872442</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>0.88361503003397956</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>1.0557437235547695</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>0.79693336374475621</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>-0.72787656790751498</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>-0.32166894925467204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>-0.30864498512528371</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>2.6816996978595853</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>-2.2592939785681665</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>0.16386366041842848</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>2.402193786110729</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>-0.54071733757155016</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>0.29072225515847094</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="K58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC82" sqref="AC82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11945,15 +10267,15 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -12001,17 +10323,17 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.65756239564507268</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7">
+        <v>-1.482344487158116</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="5">
         <v>3</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>1.5</v>
       </c>
       <c r="J2">
@@ -12024,7 +10346,7 @@
       </c>
       <c r="L2">
         <f>$J$2*B2</f>
-        <v>1.1102174896462658</v>
+        <v>-2.5027659522853325</v>
       </c>
       <c r="M2">
         <f>$H$2 * EXP(- ($I$2 * O2))</f>
@@ -12062,18 +10384,18 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.73627688834676519</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+        <v>2.1919549908488989</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="L3">
         <f>$J$2*B3+$K$2*L2</f>
-        <v>1.4908407454760246</v>
+        <v>3.1424180402721662</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" si="0">$H$2 * EXP(- ($I$2 * O3))</f>
@@ -12091,19 +10413,19 @@
       </c>
       <c r="AD3">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC3+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC3)),2))/(2*(100 - AC3))</f>
-        <v>3.1875028486689412</v>
+        <v>1.9695603035084546</v>
       </c>
       <c r="AE3">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC3+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC3)))))/(100-AC3),4)/(2*(0.457+0.494/(100-AC3)+0.045/POWER(100-AC3,2)))</f>
-        <v>3.2031409389325236</v>
+        <v>2.0375339282226448</v>
       </c>
       <c r="AF3">
         <f>N3-AD3</f>
-        <v>-0.85689332911423088</v>
+        <v>0.36104921604625573</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG66" si="2">N3-AE3</f>
-        <v>-0.87253141937781331</v>
+        <v>0.29307559133206551</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -12111,18 +10433,18 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.99592853075591847</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>-0.11642555364232976</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="L4">
         <f t="shared" ref="L4:L67" si="3">$J$2*B4+$K$2*L3</f>
-        <v>2.0141608185926381</v>
+        <v>0.50459725849219539</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -12140,19 +10462,19 @@
       </c>
       <c r="AD4">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC4+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC4)),2))/(2*(100 - AC4))</f>
-        <v>2.9724976654340876</v>
+        <v>2.9581510234158266</v>
       </c>
       <c r="AE4">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC4+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC4)))))/(100-AC4),4)/(2*(0.457+0.494/(100-AC4)+0.045/POWER(100-AC4,2)))</f>
-        <v>3.0026913834335094</v>
+        <v>3.2406112473005622</v>
       </c>
       <c r="AF4">
         <f t="shared" ref="AF4:AF66" si="4">N4-AD4</f>
-        <v>-0.1218588705376793</v>
+        <v>-0.10751222851941833</v>
       </c>
       <c r="AG4">
         <f t="shared" si="2"/>
-        <v>-0.15205258853710113</v>
+        <v>-0.3899724524041539</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -12160,18 +10482,18 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.34455297281965613</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>-0.72568468567624222</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="L5">
         <f t="shared" si="3"/>
-        <v>-0.1323175232517011</v>
+        <v>-1.1126431720473939</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -12189,19 +10511,19 @@
       </c>
       <c r="AD5">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC5+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC5)),2))/(2*(100 - AC5))</f>
-        <v>3.9123611734763863</v>
+        <v>3.1564765199609921</v>
       </c>
       <c r="AE5">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC5+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC5)))))/(100-AC5),4)/(2*(0.457+0.494/(100-AC5)+0.045/POWER(100-AC5,2)))</f>
-        <v>3.5771884942625891</v>
+        <v>3.5669688835580349</v>
       </c>
       <c r="AF5">
         <f t="shared" si="4"/>
-        <v>-0.94568816309111314</v>
+        <v>-0.1898035095757189</v>
       </c>
       <c r="AG5">
         <f t="shared" si="2"/>
-        <v>-0.61051548387731591</v>
+        <v>-0.60029587317276167</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -12209,18 +10531,18 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.13995077097206376</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+        <v>-0.44329567572276574</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>0.20676654037125855</v>
+        <v>-0.99671734735422546</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -12238,19 +10560,19 @@
       </c>
       <c r="AD6">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC6+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC6)),2))/(2*(100 - AC6))</f>
-        <v>4.4235534362205726</v>
+        <v>3.1740731707524925</v>
       </c>
       <c r="AE6">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC6+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC6)))))/(100-AC6),4)/(2*(0.457+0.494/(100-AC6)+0.045/POWER(100-AC6,2)))</f>
-        <v>3.8426266927517068</v>
+        <v>3.6574290045474638</v>
       </c>
       <c r="AF6">
         <f t="shared" si="4"/>
-        <v>-1.4309896927505719</v>
+        <v>-0.18150942728249175</v>
       </c>
       <c r="AG6">
         <f t="shared" si="2"/>
-        <v>-0.850062949281706</v>
+        <v>-0.66486526107746302</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -12258,18 +10580,18 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.67706082518270705</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+        <v>-0.60196498452569358</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>-1.0970024648089634</v>
+        <v>-1.2387454402006561</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
@@ -12287,19 +10609,19 @@
       </c>
       <c r="AD7">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC7+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC7)),2))/(2*(100 - AC7))</f>
-        <v>3.7273337190702267</v>
+        <v>2.8668476053870049</v>
       </c>
       <c r="AE7">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC7+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC7)))))/(100-AC7),4)/(2*(0.457+0.494/(100-AC7)+0.045/POWER(100-AC7,2)))</f>
-        <v>3.354258053763274</v>
+        <v>2.8040703011691268</v>
       </c>
       <c r="AF7">
         <f t="shared" si="4"/>
-        <v>-0.72899297218067005</v>
+        <v>0.13149314150255176</v>
       </c>
       <c r="AG7">
         <f t="shared" si="2"/>
-        <v>-0.35591730687371737</v>
+        <v>0.19427044572042984</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -12307,18 +10629,18 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.86344925875891931</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+        <v>0.36369442568684462</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>-1.7026078049131317</v>
+        <v>0.33765419372775973</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
@@ -12336,19 +10658,19 @@
       </c>
       <c r="AD8">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC8+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC8)),2))/(2*(100 - AC8))</f>
-        <v>3.7312563225754101</v>
+        <v>2.5911201255266216</v>
       </c>
       <c r="AE8">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC8+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC8)))))/(100-AC8),4)/(2*(0.457+0.494/(100-AC8)+0.045/POWER(100-AC8,2)))</f>
-        <v>3.4792635301446087</v>
+        <v>2.5884367346021113</v>
       </c>
       <c r="AF8">
         <f t="shared" si="4"/>
-        <v>-0.73162655198767013</v>
+        <v>0.40850964506111831</v>
       </c>
       <c r="AG8">
         <f t="shared" si="2"/>
-        <v>-0.47963375955686871</v>
+        <v>0.41119303598562862</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -12356,18 +10678,18 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.45641627366421744</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+        <v>0.70033365773269907</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>-1.1505088512547585</v>
+        <v>1.2577726165402425</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
@@ -12385,19 +10707,19 @@
       </c>
       <c r="AD9">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC9+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC9)),2))/(2*(100 - AC9))</f>
-        <v>3.297544717838452</v>
+        <v>2.7667660062646635</v>
       </c>
       <c r="AE9">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC9+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC9)))))/(100-AC9),4)/(2*(0.457+0.494/(100-AC9)+0.045/POWER(100-AC9,2)))</f>
-        <v>3.5288821692437797</v>
+        <v>2.8321556437201272</v>
       </c>
       <c r="AF9">
         <f t="shared" si="4"/>
-        <v>-0.29762732718650131</v>
+        <v>0.23315138438728722</v>
       </c>
       <c r="AG9">
         <f t="shared" si="2"/>
-        <v>-0.528964778591829</v>
+        <v>0.16776174693182355</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -12405,18 +10727,18 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.20448169379960746</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+        <v>0.69711177275166847</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>-0.60195673917865933</v>
+        <v>1.4576390101830086</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
@@ -12434,19 +10756,19 @@
       </c>
       <c r="AD10">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC10+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC10)),2))/(2*(100 - AC10))</f>
-        <v>3.4386597498088638</v>
+        <v>3.1417591403977094</v>
       </c>
       <c r="AE10">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC10+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC10)))))/(100-AC10),4)/(2*(0.457+0.494/(100-AC10)+0.045/POWER(100-AC10,2)))</f>
-        <v>3.7191468563730297</v>
+        <v>2.8046383108642368</v>
       </c>
       <c r="AF10">
         <f t="shared" si="4"/>
-        <v>-0.4386781824459236</v>
+        <v>-0.14177757303476923</v>
       </c>
       <c r="AG10">
         <f t="shared" si="2"/>
-        <v>-0.71916528901008947</v>
+        <v>0.19534325649870343</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
@@ -12454,18 +10776,18 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1.7142156139016151</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+        <v>-0.90058392743230797</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>-3.0285680371127546</v>
+        <v>-1.1952878048126732</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
@@ -12483,19 +10805,19 @@
       </c>
       <c r="AD11">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC11+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC11)),2))/(2*(100 - AC11))</f>
-        <v>3.9983969058509437</v>
+        <v>3.2226437702694111</v>
       </c>
       <c r="AE11">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC11+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC11)))))/(100-AC11),4)/(2*(0.457+0.494/(100-AC11)+0.045/POWER(100-AC11,2)))</f>
-        <v>3.4558943922300411</v>
+        <v>3.2427744196502526</v>
       </c>
       <c r="AF11">
         <f t="shared" si="4"/>
-        <v>-0.99840101872820286</v>
+        <v>-0.22264788314667028</v>
       </c>
       <c r="AG11">
         <f t="shared" si="2"/>
-        <v>-0.45589850510730034</v>
+        <v>-0.2427785325275118</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
@@ -12503,18 +10825,18 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.0321309673599899</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+        <v>0.62272761169879232</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>1.066868009262999</v>
+        <v>0.78469825639096713</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
@@ -12532,19 +10854,19 @@
       </c>
       <c r="AD12">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC12+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC12)),2))/(2*(100 - AC12))</f>
-        <v>4.3219855099722286</v>
+        <v>3.437285175708094</v>
       </c>
       <c r="AE12">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC12+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC12)))))/(100-AC12),4)/(2*(0.457+0.494/(100-AC12)+0.045/POWER(100-AC12,2)))</f>
-        <v>4.0921738975490989</v>
+        <v>3.3548451196549194</v>
       </c>
       <c r="AF12">
         <f t="shared" si="4"/>
-        <v>-1.3219864276791902</v>
+        <v>-0.43728609341505553</v>
       </c>
       <c r="AG12">
         <f t="shared" si="2"/>
-        <v>-1.0921748152560604</v>
+        <v>-0.35484603736188092</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -12552,18 +10874,18 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.46449599722109269</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+        <v>0.8161032383213751</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>1.0222978006613317</v>
+        <v>1.5529850778518617</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
@@ -12581,19 +10903,19 @@
       </c>
       <c r="AD13">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC13+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC13)),2))/(2*(100 - AC13))</f>
-        <v>4.2826343739961068</v>
+        <v>3.3460662513994968</v>
       </c>
       <c r="AE13">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC13+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC13)))))/(100-AC13),4)/(2*(0.457+0.494/(100-AC13)+0.045/POWER(100-AC13,2)))</f>
-        <v>3.9811071946359133</v>
+        <v>3.2081937388922195</v>
       </c>
       <c r="AF13">
         <f t="shared" si="4"/>
-        <v>-1.2826345787642079</v>
+        <v>-0.3460664561675979</v>
       </c>
       <c r="AG13">
         <f t="shared" si="2"/>
-        <v>-0.98110739940401448</v>
+        <v>-0.20819394366032062</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -12601,18 +10923,18 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-1.2811506167054176</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+        <v>-0.25041003937076312</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>-1.934968072001312</v>
+        <v>-7.6270366006175649E-2</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
@@ -12630,19 +10952,19 @@
       </c>
       <c r="AD14">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC14+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC14)),2))/(2*(100 - AC14))</f>
-        <v>4.0662539427132067</v>
+        <v>2.7312769841910032</v>
       </c>
       <c r="AE14">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC14+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC14)))))/(100-AC14),4)/(2*(0.457+0.494/(100-AC14)+0.045/POWER(100-AC14,2)))</f>
-        <v>4.2689207702645957</v>
+        <v>3.0280734954561628</v>
       </c>
       <c r="AF14">
         <f t="shared" si="4"/>
-        <v>-1.0662539884031461</v>
+        <v>0.26872297011905744</v>
       </c>
       <c r="AG14">
         <f t="shared" si="2"/>
-        <v>-1.2689208159545351</v>
+        <v>-2.8073541146102166E-2</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
@@ -12650,18 +10972,18 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.38091229725978337</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+        <v>2.2091808205004781</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>0.2113762964183421</v>
+        <v>3.7129261953498709</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
@@ -12679,19 +11001,19 @@
       </c>
       <c r="AD15">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC15+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC15)),2))/(2*(100 - AC15))</f>
-        <v>3.5725093044434333</v>
+        <v>2.6285245095916991</v>
       </c>
       <c r="AE15">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC15+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC15)))))/(100-AC15),4)/(2*(0.457+0.494/(100-AC15)+0.045/POWER(100-AC15,2)))</f>
-        <v>3.5693975028909048</v>
+        <v>2.3805413331366232</v>
       </c>
       <c r="AF15">
         <f t="shared" si="4"/>
-        <v>-0.57250931463823695</v>
+        <v>0.37147548021349719</v>
       </c>
       <c r="AG15">
         <f t="shared" si="2"/>
-        <v>-0.56939751308570852</v>
+        <v>0.61945865666857314</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
@@ -12699,18 +11021,18 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.16556896298425272</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+        <v>-0.89019067672779784</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>-0.23237947598116815</v>
+        <v>-0.67451742115311053</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
@@ -12728,19 +11050,19 @@
       </c>
       <c r="AD16">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC16+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC16)),2))/(2*(100 - AC16))</f>
-        <v>4.0738232121757587</v>
+        <v>2.3339261978977661</v>
       </c>
       <c r="AE16">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC16+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC16)))))/(100-AC16),4)/(2*(0.457+0.494/(100-AC16)+0.045/POWER(100-AC16,2)))</f>
-        <v>3.5726482078364228</v>
+        <v>2.6674404188389942</v>
       </c>
       <c r="AF16">
         <f t="shared" si="4"/>
-        <v>-1.0738232144505266</v>
+        <v>0.66607379982746595</v>
       </c>
       <c r="AG16">
         <f t="shared" si="2"/>
-        <v>-0.57264821011119071</v>
+        <v>0.33255957888623788</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
@@ -12748,18 +11070,18 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.47963226279534865</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+        <v>0.40313352656085044</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>0.75795232203760077</v>
+        <v>0.53013880858590501</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
@@ -12777,19 +11099,19 @@
       </c>
       <c r="AD17">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC17+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC17)),2))/(2*(100 - AC17))</f>
-        <v>3.6032118798248236</v>
+        <v>2.9912537776480468</v>
       </c>
       <c r="AE17">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC17+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC17)))))/(100-AC17),4)/(2*(0.457+0.494/(100-AC17)+0.045/POWER(100-AC17,2)))</f>
-        <v>3.3348081139233066</v>
+        <v>2.7101659847561912</v>
       </c>
       <c r="AF17">
         <f t="shared" si="4"/>
-        <v>-0.60321188033239315</v>
+        <v>8.7462218443836726E-3</v>
       </c>
       <c r="AG17">
         <f t="shared" si="2"/>
-        <v>-0.3348081144308761</v>
+        <v>0.28983401473623926</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
@@ -12797,11 +11119,11 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.3511680663214065</v>
+        <v>0.57612396631157026</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>2.4504118726281749</v>
+        <v>1.0910081477162052</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
@@ -12819,19 +11141,19 @@
       </c>
       <c r="AD18">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC18+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC18)),2))/(2*(100 - AC18))</f>
-        <v>3.7077874532160733</v>
+        <v>3.7232990109900546</v>
       </c>
       <c r="AE18">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC18+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC18)))))/(100-AC18),4)/(2*(0.457+0.494/(100-AC18)+0.045/POWER(100-AC18,2)))</f>
-        <v>4.1141823574414413</v>
+        <v>4.0703034044873476</v>
       </c>
       <c r="AF18">
         <f t="shared" si="4"/>
-        <v>-0.70778745332932713</v>
+        <v>-0.72329901110330841</v>
       </c>
       <c r="AG18">
         <f t="shared" si="2"/>
-        <v>-1.1141823575546952</v>
+        <v>-1.0703034046006015</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
@@ -12839,11 +11161,11 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.26282236831320915</v>
+        <v>0.18296759662916884</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>0.10301584722784174</v>
+        <v>0.55235629129613084</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
@@ -12861,19 +11183,19 @@
       </c>
       <c r="AD19">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC19+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC19)),2))/(2*(100 - AC19))</f>
-        <v>4.2650509146620426</v>
+        <v>3.7767061100321069</v>
       </c>
       <c r="AE19">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC19+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC19)))))/(100-AC19),4)/(2*(0.457+0.494/(100-AC19)+0.045/POWER(100-AC19,2)))</f>
-        <v>3.8101881724851556</v>
+        <v>4.1181447704187146</v>
       </c>
       <c r="AF19">
         <f t="shared" si="4"/>
-        <v>-1.265050914687313</v>
+        <v>-0.77670611005737733</v>
       </c>
       <c r="AG19">
         <f t="shared" si="2"/>
-        <v>-0.81018817251042607</v>
+        <v>-1.1181447704439851</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
@@ -12881,11 +11203,11 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.36958454074920155</v>
+        <v>-1.7403954188921489</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>0.64698637767299527</v>
+        <v>-2.8152075361672266</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
@@ -12903,19 +11225,19 @@
       </c>
       <c r="AD20">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC20+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC20)),2))/(2*(100 - AC20))</f>
-        <v>3.2671468828141808</v>
+        <v>3.1006459237330937</v>
       </c>
       <c r="AE20">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC20+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC20)))))/(100-AC20),4)/(2*(0.457+0.494/(100-AC20)+0.045/POWER(100-AC20,2)))</f>
-        <v>3.4831923330310137</v>
+        <v>3.3122237527959397</v>
       </c>
       <c r="AF20">
         <f t="shared" si="4"/>
-        <v>-0.26714688281981935</v>
+        <v>-0.10064592373873227</v>
       </c>
       <c r="AG20">
         <f t="shared" si="2"/>
-        <v>-0.48319233303665232</v>
+        <v>-0.31222375280157832</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
@@ -12923,11 +11245,11 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.48788706408231519</v>
+        <v>0.23591155695612542</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>0.96810263596343804</v>
+        <v>-0.22984853153774315</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
@@ -12945,19 +11267,19 @@
       </c>
       <c r="AD21">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC21+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC21)),2))/(2*(100 - AC21))</f>
-        <v>3.8323520200082632</v>
+        <v>2.6558746284827452</v>
       </c>
       <c r="AE21">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC21+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC21)))))/(100-AC21),4)/(2*(0.457+0.494/(100-AC21)+0.045/POWER(100-AC21,2)))</f>
-        <v>3.7548823100402307</v>
+        <v>2.7769399594766186</v>
       </c>
       <c r="AF21">
         <f t="shared" si="4"/>
-        <v>-0.83235202000952135</v>
+        <v>0.34412537151599665</v>
       </c>
       <c r="AG21">
         <f t="shared" si="2"/>
-        <v>-0.75488231004148876</v>
+        <v>0.22306004052212325</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
@@ -12965,11 +11287,11 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-2.0070910977665335</v>
+        <v>-0.26361476557212882</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>-3.1727265676283873</v>
+        <v>-0.49636895643929502</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
@@ -12987,19 +11309,19 @@
       </c>
       <c r="AD22">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC22+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC22)),2))/(2*(100 - AC22))</f>
-        <v>2.7884824325736579</v>
+        <v>2.4973523671514206</v>
       </c>
       <c r="AE22">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC22+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC22)))))/(100-AC22),4)/(2*(0.457+0.494/(100-AC22)+0.045/POWER(100-AC22,2)))</f>
-        <v>3.2685363785609778</v>
+        <v>2.4291497109707429</v>
       </c>
       <c r="AF22">
         <f t="shared" si="4"/>
-        <v>0.21151756742606143</v>
+        <v>0.50264763284829872</v>
       </c>
       <c r="AG22">
         <f t="shared" si="2"/>
-        <v>-0.26853637856125845</v>
+        <v>0.57085028902897639</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
@@ -13007,11 +11329,11 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.3928664682462113</v>
+        <v>-1.2065447663189843</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>-4.4621730056891629E-2</v>
+        <v>-2.1478651429937399</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
@@ -13029,19 +11351,19 @@
       </c>
       <c r="AD23">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC23+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC23)),2))/(2*(100 - AC23))</f>
-        <v>3.7472334787741119</v>
+        <v>2.6733566650643148</v>
       </c>
       <c r="AE23">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC23+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC23)))))/(100-AC23),4)/(2*(0.457+0.494/(100-AC23)+0.045/POWER(100-AC23,2)))</f>
-        <v>3.3674893921965841</v>
+        <v>2.4458720800803526</v>
       </c>
       <c r="AF23">
         <f t="shared" si="4"/>
-        <v>-0.74723347877417456</v>
+        <v>0.32664333493562259</v>
       </c>
       <c r="AG23">
         <f t="shared" si="2"/>
-        <v>-0.36748939219664667</v>
+        <v>0.55412791991958477</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
@@ -13049,11 +11371,11 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.62142817114363424</v>
+        <v>0.16564740690228064</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>-1.0591655155019575</v>
+        <v>-0.19957714706509389</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
@@ -13071,19 +11393,19 @@
       </c>
       <c r="AD24">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC24+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC24)),2))/(2*(100 - AC24))</f>
-        <v>3.8479929194744651</v>
+        <v>2.9473015748321263</v>
       </c>
       <c r="AE24">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC24+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC24)))))/(100-AC24),4)/(2*(0.457+0.494/(100-AC24)+0.045/POWER(100-AC24,2)))</f>
-        <v>3.557582649318654</v>
+        <v>3.4543953422370666</v>
       </c>
       <c r="AF24">
         <f t="shared" si="4"/>
-        <v>-0.84799291947447886</v>
+        <v>5.2698425167859941E-2</v>
       </c>
       <c r="AG24">
         <f t="shared" si="2"/>
-        <v>-0.55758264931866774</v>
+        <v>-0.45439534223708034</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
@@ -13091,11 +11413,11 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.96792973636183888</v>
+        <v>1.573757799633313</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>-1.8705683533210125</v>
+        <v>2.6125749986580176</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
@@ -13113,19 +11435,19 @@
       </c>
       <c r="AD25">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC25+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC25)),2))/(2*(100 - AC25))</f>
-        <v>3.7397082631219303</v>
+        <v>3.1978613251306727</v>
       </c>
       <c r="AE25">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC25+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC25)))))/(100-AC25),4)/(2*(0.457+0.494/(100-AC25)+0.045/POWER(100-AC25,2)))</f>
-        <v>4.0743447307470788</v>
+        <v>3.5074286417305207</v>
       </c>
       <c r="AF25">
         <f t="shared" si="4"/>
-        <v>-0.73970826312193338</v>
+        <v>-0.19786132513067578</v>
       </c>
       <c r="AG25">
         <f t="shared" si="2"/>
-        <v>-1.0743447307470819</v>
+        <v>-0.50742864173052382</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
@@ -13133,11 +11455,11 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.7848742572823539</v>
+        <v>-7.3006276579690166E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>2.5961720038606382</v>
+        <v>0.45968168611833188</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
@@ -13155,19 +11477,19 @@
       </c>
       <c r="AD26">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC26+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC26)),2))/(2*(100 - AC26))</f>
-        <v>3.9260052889219348</v>
+        <v>3.0394978010164322</v>
       </c>
       <c r="AE26">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC26+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC26)))))/(100-AC26),4)/(2*(0.457+0.494/(100-AC26)+0.045/POWER(100-AC26,2)))</f>
-        <v>3.5416572521412215</v>
+        <v>3.2948715747493647</v>
       </c>
       <c r="AF26">
         <f t="shared" si="4"/>
-        <v>-0.92600528892193568</v>
+        <v>-3.9497801016433076E-2</v>
       </c>
       <c r="AG26">
         <f t="shared" si="2"/>
-        <v>-0.5416572521412224</v>
+        <v>-0.29487157474936554</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
@@ -13175,11 +11497,11 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.19137587514705956</v>
+        <v>1.0189296517637558</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
-        <v>0.25616840782827038</v>
+        <v>1.8229128454026342</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
@@ -13197,19 +11519,19 @@
       </c>
       <c r="AD27">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC27+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC27)),2))/(2*(100 - AC27))</f>
-        <v>3.7666280404727477</v>
+        <v>2.4967844515554556</v>
       </c>
       <c r="AE27">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC27+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC27)))))/(100-AC27),4)/(2*(0.457+0.494/(100-AC27)+0.045/POWER(100-AC27,2)))</f>
-        <v>3.5573985417689964</v>
+        <v>2.9392233236002006</v>
       </c>
       <c r="AF27">
         <f t="shared" si="4"/>
-        <v>-0.76662804047274768</v>
+        <v>0.50321554844454441</v>
       </c>
       <c r="AG27">
         <f t="shared" si="2"/>
-        <v>-0.55739854176899639</v>
+        <v>6.0776676399799445E-2</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
@@ -13217,11 +11539,11 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.3113534552976489</v>
+        <v>8.236725079768803E-2</v>
       </c>
       <c r="L28">
         <f t="shared" si="3"/>
-        <v>3.9596099014804857</v>
+        <v>0.54581434114337646</v>
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
@@ -13239,19 +11561,19 @@
       </c>
       <c r="AD28">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC28+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC28)),2))/(2*(100 - AC28))</f>
-        <v>3.9771561224105367</v>
+        <v>2.680904208320753</v>
       </c>
       <c r="AE28">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC28+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC28)))))/(100-AC28),4)/(2*(0.457+0.494/(100-AC28)+0.045/POWER(100-AC28,2)))</f>
-        <v>3.7356491020229834</v>
+        <v>2.7465423718920441</v>
       </c>
       <c r="AF28">
         <f t="shared" si="4"/>
-        <v>-0.97715612241053673</v>
+        <v>0.31909579167924695</v>
       </c>
       <c r="AG28">
         <f t="shared" si="2"/>
-        <v>-0.73564910202298339</v>
+        <v>0.25345762810795591</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
@@ -13259,11 +11581,11 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.13385033525992185</v>
+        <v>-0.12097075341443997</v>
       </c>
       <c r="L29">
         <f t="shared" si="3"/>
-        <v>0.65751769582995223</v>
+        <v>-8.2457380971005731E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
@@ -13281,19 +11603,19 @@
       </c>
       <c r="AD29">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC29+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC29)),2))/(2*(100 - AC29))</f>
-        <v>3.8380264230987473</v>
+        <v>2.8370597178764148</v>
       </c>
       <c r="AE29">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC29+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC29)))))/(100-AC29),4)/(2*(0.457+0.494/(100-AC29)+0.045/POWER(100-AC29,2)))</f>
-        <v>3.9147049672844192</v>
+        <v>3.4150541615758185</v>
       </c>
       <c r="AF29">
         <f t="shared" si="4"/>
-        <v>-0.83802642309874731</v>
+        <v>0.16294028212358524</v>
       </c>
       <c r="AG29">
         <f t="shared" si="2"/>
-        <v>-0.91470496728441919</v>
+        <v>-0.41505416157581854</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -13301,11 +11623,11 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.2265900295460597</v>
+        <v>-2.3860775399953127</v>
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>-1.924242320879535</v>
+        <v>-4.0470126428283368</v>
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
@@ -13323,19 +11645,19 @@
       </c>
       <c r="AD30">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC30+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC30)),2))/(2*(100 - AC30))</f>
-        <v>4.4886333611997653</v>
+        <v>2.8868602801272387</v>
       </c>
       <c r="AE30">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC30+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC30)))))/(100-AC30),4)/(2*(0.457+0.494/(100-AC30)+0.045/POWER(100-AC30,2)))</f>
-        <v>3.8322597988181277</v>
+        <v>3.4222471187323968</v>
       </c>
       <c r="AF30">
         <f t="shared" si="4"/>
-        <v>-1.4886333611997653</v>
+        <v>0.11313971987276128</v>
       </c>
       <c r="AG30">
         <f t="shared" si="2"/>
-        <v>-0.83225979881812773</v>
+        <v>-0.42224711873239684</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
@@ -13343,11 +11665,11 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-1.8948867364088073</v>
+        <v>-1.0936309990938753</v>
       </c>
       <c r="L31">
         <f t="shared" si="3"/>
-        <v>-3.6286519703096438</v>
+        <v>-2.7494790974729471</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
@@ -13365,19 +11687,19 @@
       </c>
       <c r="AD31">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC31+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC31)),2))/(2*(100 - AC31))</f>
-        <v>4.8609935574863332</v>
+        <v>3.246581176867533</v>
       </c>
       <c r="AE31">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC31+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC31)))))/(100-AC31),4)/(2*(0.457+0.494/(100-AC31)+0.045/POWER(100-AC31,2)))</f>
-        <v>4.9269100038681239</v>
+        <v>2.975577915665522</v>
       </c>
       <c r="AF31">
         <f t="shared" si="4"/>
-        <v>-1.8609935574863332</v>
+        <v>-0.246581176867533</v>
       </c>
       <c r="AG31">
         <f t="shared" si="2"/>
-        <v>-1.9269100038681239</v>
+        <v>2.4422084334478011E-2</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
@@ -13385,11 +11707,11 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-2.5114422896876931</v>
+        <v>0.34894128475571051</v>
       </c>
       <c r="L32">
         <f t="shared" si="3"/>
-        <v>-5.0499393825386472</v>
+        <v>-2.4345008671850188E-2</v>
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
@@ -13407,19 +11729,19 @@
       </c>
       <c r="AD32">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC32+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC32)),2))/(2*(100 - AC32))</f>
-        <v>4.8365592040883714</v>
+        <v>3.4130715331742985</v>
       </c>
       <c r="AE32">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC32+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC32)))))/(100-AC32),4)/(2*(0.457+0.494/(100-AC32)+0.045/POWER(100-AC32,2)))</f>
-        <v>3.8743302440957379</v>
+        <v>3.9397447509962982</v>
       </c>
       <c r="AF32">
         <f t="shared" si="4"/>
-        <v>-1.8365592040883714</v>
+        <v>-0.41307153317429846</v>
       </c>
       <c r="AG32">
         <f t="shared" si="2"/>
-        <v>-0.8743302440957379</v>
+        <v>-0.93974475099629817</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
@@ -13427,11 +11749,11 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2.3743632482364774</v>
+        <v>-1.0753115020634141</v>
       </c>
       <c r="L33">
         <f t="shared" si="3"/>
-        <v>2.8820419142884672</v>
+        <v>-1.820970287786537</v>
       </c>
       <c r="M33">
         <f t="shared" si="0"/>
@@ -13449,19 +11771,19 @@
       </c>
       <c r="AD33">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC33+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC33)),2))/(2*(100 - AC33))</f>
-        <v>4.1902087175645395</v>
+        <v>3.1789849843634461</v>
       </c>
       <c r="AE33">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC33+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC33)))))/(100-AC33),4)/(2*(0.457+0.494/(100-AC33)+0.045/POWER(100-AC33,2)))</f>
-        <v>3.9894171019663873</v>
+        <v>3.9821962046096275</v>
       </c>
       <c r="AF33">
         <f t="shared" si="4"/>
-        <v>-1.1902087175645395</v>
+        <v>-0.17898498436344612</v>
       </c>
       <c r="AG33">
         <f t="shared" si="2"/>
-        <v>-0.98941710196638732</v>
+        <v>-0.98219620460962753</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
@@ -13469,11 +11791,11 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.17247657524421811</v>
+        <v>-1.0553435458859894</v>
       </c>
       <c r="L34">
         <f t="shared" si="3"/>
-        <v>0.35186387257152479</v>
+        <v>-2.1881380065883076</v>
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
@@ -13491,19 +11813,19 @@
       </c>
       <c r="AD34">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC34+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC34)),2))/(2*(100 - AC34))</f>
-        <v>3.5596066665405099</v>
+        <v>3.3290136018563565</v>
       </c>
       <c r="AE34">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC34+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC34)))))/(100-AC34),4)/(2*(0.457+0.494/(100-AC34)+0.045/POWER(100-AC34,2)))</f>
-        <v>4.3071097423347906</v>
+        <v>3.8491849347578158</v>
       </c>
       <c r="AF34">
         <f t="shared" si="4"/>
-        <v>-0.55960666654050994</v>
+        <v>-0.32901360185635653</v>
       </c>
       <c r="AG34">
         <f t="shared" si="2"/>
-        <v>-1.3071097423347906</v>
+        <v>-0.84918493475781576</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
@@ -13511,11 +11833,11 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2.3642496671527624</v>
+        <v>-1.0747953638201579E-2</v>
       </c>
       <c r="L35">
         <f t="shared" si="3"/>
-        <v>4.0702715364081419</v>
+        <v>-0.50638625126508008</v>
       </c>
       <c r="M35">
         <f t="shared" si="0"/>
@@ -13533,19 +11855,19 @@
       </c>
       <c r="AD35">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC35+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC35)),2))/(2*(100 - AC35))</f>
-        <v>3.559978555633553</v>
+        <v>3.4892683560262001</v>
       </c>
       <c r="AE35">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC35+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC35)))))/(100-AC35),4)/(2*(0.457+0.494/(100-AC35)+0.045/POWER(100-AC35,2)))</f>
-        <v>3.8657472715793486</v>
+        <v>3.5062278465382053</v>
       </c>
       <c r="AF35">
         <f t="shared" si="4"/>
-        <v>-0.55997855563355303</v>
+        <v>-0.48926835602620011</v>
       </c>
       <c r="AG35">
         <f t="shared" si="2"/>
-        <v>-0.86574727157934861</v>
+        <v>-0.50622784653820529</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
@@ -13553,11 +11875,11 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.8511354937800206</v>
+        <v>-1.3028306966589298</v>
       </c>
       <c r="L36">
         <f t="shared" si="3"/>
-        <v>4.0336269373190037</v>
+        <v>-2.3126678782868875</v>
       </c>
       <c r="M36">
         <f t="shared" si="0"/>
@@ -13575,19 +11897,19 @@
       </c>
       <c r="AD36">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC36+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC36)),2))/(2*(100 - AC36))</f>
-        <v>3.3511899444327011</v>
+        <v>3.098904824274952</v>
       </c>
       <c r="AE36">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC36+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC36)))))/(100-AC36),4)/(2*(0.457+0.494/(100-AC36)+0.045/POWER(100-AC36,2)))</f>
-        <v>2.613144128839175</v>
+        <v>2.9222518096826033</v>
       </c>
       <c r="AF36">
         <f t="shared" si="4"/>
-        <v>-0.35118994443270113</v>
+        <v>-9.8904824274951952E-2</v>
       </c>
       <c r="AG36">
         <f t="shared" si="2"/>
-        <v>0.38685587116082498</v>
+        <v>7.7748190317396659E-2</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
@@ -13595,11 +11917,11 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.47397520575032104</v>
+        <v>0.29727289074799046</v>
       </c>
       <c r="L37">
         <f t="shared" si="3"/>
-        <v>1.7002757345388217</v>
+        <v>-1.4115314557221814E-2</v>
       </c>
       <c r="M37">
         <f t="shared" si="0"/>
@@ -13617,19 +11939,19 @@
       </c>
       <c r="AD37">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC37+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC37)),2))/(2*(100 - AC37))</f>
-        <v>3.7041318482961527</v>
+        <v>3.6403883062206472</v>
       </c>
       <c r="AE37">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC37+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC37)))))/(100-AC37),4)/(2*(0.457+0.494/(100-AC37)+0.045/POWER(100-AC37,2)))</f>
-        <v>4.0091351563998163</v>
+        <v>3.7716486251389161</v>
       </c>
       <c r="AF37">
         <f t="shared" si="4"/>
-        <v>-0.70413184829615272</v>
+        <v>-0.64038830622064724</v>
       </c>
       <c r="AG37">
         <f t="shared" si="2"/>
-        <v>-1.0091351563998163</v>
+        <v>-0.77164862513891608</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
@@ -13637,11 +11959,11 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.60959337133681402</v>
+        <v>0.71734802986611612</v>
       </c>
       <c r="L38">
         <f t="shared" si="3"/>
-        <v>-0.64984458423333347</v>
+        <v>1.2080090147514597</v>
       </c>
       <c r="M38">
         <f t="shared" si="0"/>
@@ -13659,19 +11981,19 @@
       </c>
       <c r="AD38">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC38+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC38)),2))/(2*(100 - AC38))</f>
-        <v>3.4771495137681736</v>
+        <v>3.5339125968368461</v>
       </c>
       <c r="AE38">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC38+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC38)))))/(100-AC38),4)/(2*(0.457+0.494/(100-AC38)+0.045/POWER(100-AC38,2)))</f>
-        <v>3.3226925152061955</v>
+        <v>3.5091702377056126</v>
       </c>
       <c r="AF38">
         <f t="shared" si="4"/>
-        <v>-0.47714951376817361</v>
+        <v>-0.53391259683684611</v>
       </c>
       <c r="AG38">
         <f t="shared" si="2"/>
-        <v>-0.32269251520619546</v>
+        <v>-0.50917023770561265</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
@@ -13679,11 +12001,11 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.86589579950668849</v>
+        <v>0.44878788685309701</v>
       </c>
       <c r="L39">
         <f t="shared" si="3"/>
-        <v>1.3169642421012184</v>
+        <v>1.0272693016820846</v>
       </c>
       <c r="M39">
         <f t="shared" si="0"/>
@@ -13701,19 +12023,19 @@
       </c>
       <c r="AD39">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC39+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC39)),2))/(2*(100 - AC39))</f>
-        <v>4.0040663702402046</v>
+        <v>3.4800197287687005</v>
       </c>
       <c r="AE39">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC39+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC39)))))/(100-AC39),4)/(2*(0.457+0.494/(100-AC39)+0.045/POWER(100-AC39,2)))</f>
-        <v>3.9768981871314057</v>
+        <v>3.2016122850212954</v>
       </c>
       <c r="AF39">
         <f t="shared" si="4"/>
-        <v>-1.0040663702402046</v>
+        <v>-0.48001972876870047</v>
       </c>
       <c r="AG39">
         <f t="shared" si="2"/>
-        <v>-0.97689818713140575</v>
+        <v>-0.20161228502129536</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
@@ -13721,11 +12043,11 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.52230461733415723</v>
+        <v>1.9311210053274408</v>
       </c>
       <c r="L40">
         <f t="shared" si="3"/>
-        <v>-0.58799604817936091</v>
+        <v>3.489687578147131</v>
       </c>
       <c r="M40">
         <f t="shared" si="0"/>
@@ -13743,19 +12065,19 @@
       </c>
       <c r="AD40">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC40+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC40)),2))/(2*(100 - AC40))</f>
-        <v>2.6891188334784575</v>
+        <v>3.8360454002126652</v>
       </c>
       <c r="AE40">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC40+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC40)))))/(100-AC40),4)/(2*(0.457+0.494/(100-AC40)+0.045/POWER(100-AC40,2)))</f>
-        <v>2.3706665478868141</v>
+        <v>4.5011693484821871</v>
       </c>
       <c r="AF40">
         <f t="shared" si="4"/>
-        <v>0.31088116652154252</v>
+        <v>-0.83604540021266516</v>
       </c>
       <c r="AG40">
         <f t="shared" si="2"/>
-        <v>0.62933345211318592</v>
+        <v>-1.5011693484821871</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
@@ -13763,11 +12085,11 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2.4956170818768442</v>
+        <v>-0.66804432208300568</v>
       </c>
       <c r="L41">
         <f t="shared" si="3"/>
-        <v>4.0823590153575031</v>
+        <v>-0.34926045296278596</v>
       </c>
       <c r="M41">
         <f t="shared" si="0"/>
@@ -13785,19 +12107,19 @@
       </c>
       <c r="AD41">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC41+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC41)),2))/(2*(100 - AC41))</f>
-        <v>3.2297212292877608</v>
+        <v>3.0573970136908817</v>
       </c>
       <c r="AE41">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC41+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC41)))))/(100-AC41),4)/(2*(0.457+0.494/(100-AC41)+0.045/POWER(100-AC41,2)))</f>
-        <v>2.6483956914228783</v>
+        <v>3.6497023078904673</v>
       </c>
       <c r="AF41">
         <f t="shared" si="4"/>
-        <v>-0.22972122928776084</v>
+        <v>-5.7397013690881682E-2</v>
       </c>
       <c r="AG41">
         <f t="shared" si="2"/>
-        <v>0.35160430857712166</v>
+        <v>-0.64970230789046735</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
@@ -13805,11 +12127,11 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.11126644494652282</v>
+        <v>0.19566186892916448</v>
       </c>
       <c r="L42">
         <f t="shared" si="3"/>
-        <v>0.72303699271616062</v>
+        <v>0.25242172748458508</v>
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
@@ -13827,19 +12149,19 @@
       </c>
       <c r="AD42">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC42+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC42)),2))/(2*(100 - AC42))</f>
-        <v>2.9034736159457064</v>
+        <v>2.9443268463167893</v>
       </c>
       <c r="AE42">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC42+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC42)))))/(100-AC42),4)/(2*(0.457+0.494/(100-AC42)+0.045/POWER(100-AC42,2)))</f>
-        <v>2.0944454896939892</v>
+        <v>3.626779458436963</v>
       </c>
       <c r="AF42">
         <f t="shared" si="4"/>
-        <v>9.652638405429359E-2</v>
+        <v>5.5673153683210685E-2</v>
       </c>
       <c r="AG42">
         <f t="shared" si="2"/>
-        <v>0.90555451030601075</v>
+        <v>-0.62677945843696303</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
@@ -13847,11 +12169,11 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.67273731474415399</v>
+        <v>4.8021320253610611E-2</v>
       </c>
       <c r="L43">
         <f t="shared" si="3"/>
-        <v>1.2971699324284871</v>
+        <v>0.13740130455787758</v>
       </c>
       <c r="M43">
         <f t="shared" si="0"/>
@@ -13869,19 +12191,19 @@
       </c>
       <c r="AD43">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC43+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC43)),2))/(2*(100 - AC43))</f>
-        <v>3.3871896510018096</v>
+        <v>3.2816240904234437</v>
       </c>
       <c r="AE43">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC43+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC43)))))/(100-AC43),4)/(2*(0.457+0.494/(100-AC43)+0.045/POWER(100-AC43,2)))</f>
-        <v>3.1578144714530105</v>
+        <v>3.5824427158067293</v>
       </c>
       <c r="AF43">
         <f t="shared" si="4"/>
-        <v>-0.38718965100180958</v>
+        <v>-0.28162409042344372</v>
       </c>
       <c r="AG43">
         <f t="shared" si="2"/>
-        <v>-0.15781447145301053</v>
+        <v>-0.58244271580672935</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
@@ -13889,11 +12211,11 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.19628600966825616</v>
+        <v>-0.74331751420686487</v>
       </c>
       <c r="L44">
         <f t="shared" si="3"/>
-        <v>-4.1968322441844064E-2</v>
+        <v>-1.2243466405524812</v>
       </c>
       <c r="M44">
         <f t="shared" si="0"/>
@@ -13911,19 +12233,19 @@
       </c>
       <c r="AD44">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC44+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC44)),2))/(2*(100 - AC44))</f>
-        <v>3.6598956858375908</v>
+        <v>3.4057698141727046</v>
       </c>
       <c r="AE44">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC44+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC44)))))/(100-AC44),4)/(2*(0.457+0.494/(100-AC44)+0.045/POWER(100-AC44,2)))</f>
-        <v>2.8887720562119914</v>
+        <v>3.1880126296519844</v>
       </c>
       <c r="AF44">
         <f t="shared" si="4"/>
-        <v>-0.65989568583759084</v>
+        <v>-0.40576981417270463</v>
       </c>
       <c r="AG44">
         <f t="shared" si="2"/>
-        <v>0.1112279437880086</v>
+        <v>-0.1880126296519844</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
@@ -13931,11 +12253,11 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-9.5192262961063534E-2</v>
+        <v>-1.1188785720150918</v>
       </c>
       <c r="L45">
         <f t="shared" si="3"/>
-        <v>-0.17008544326063629</v>
+        <v>-2.1622847655146327</v>
       </c>
       <c r="M45">
         <f t="shared" si="0"/>
@@ -13953,19 +12275,19 @@
       </c>
       <c r="AD45">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC45+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC45)),2))/(2*(100 - AC45))</f>
-        <v>3.3547646753333007</v>
+        <v>2.9309316429970407</v>
       </c>
       <c r="AE45">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC45+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC45)))))/(100-AC45),4)/(2*(0.457+0.494/(100-AC45)+0.045/POWER(100-AC45,2)))</f>
-        <v>3.1464648894893892</v>
+        <v>3.2294344630233676</v>
       </c>
       <c r="AF45">
         <f t="shared" si="4"/>
-        <v>-0.35476467533330069</v>
+        <v>6.9068357002959324E-2</v>
       </c>
       <c r="AG45">
         <f t="shared" si="2"/>
-        <v>-0.14646488948938918</v>
+        <v>-0.22943446302336756</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
@@ -13973,11 +12295,11 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.7787442629924044E-2</v>
+        <v>1.4422357708099298</v>
       </c>
       <c r="L46">
         <f t="shared" si="3"/>
-        <v>-7.9191678038729348E-3</v>
+        <v>1.9525761119533098</v>
       </c>
       <c r="M46">
         <f t="shared" si="0"/>
@@ -13995,19 +12317,19 @@
       </c>
       <c r="AD46">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC46+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC46)),2))/(2*(100 - AC46))</f>
-        <v>3.3456379034872628</v>
+        <v>2.8934742157424269</v>
       </c>
       <c r="AE46">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC46+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC46)))))/(100-AC46),4)/(2*(0.457+0.494/(100-AC46)+0.045/POWER(100-AC46,2)))</f>
-        <v>2.2735797939872313</v>
+        <v>3.0764924035541337</v>
       </c>
       <c r="AF46">
         <f t="shared" si="4"/>
-        <v>-0.34563790348726275</v>
+        <v>0.10652578425757309</v>
       </c>
       <c r="AG46">
         <f t="shared" si="2"/>
-        <v>0.72642020601276869</v>
+        <v>-7.649240355413367E-2</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
@@ -14015,11 +12337,11 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.35838638723362237</v>
+        <v>0.657753389532445</v>
       </c>
       <c r="L47">
         <f t="shared" si="3"/>
-        <v>-0.60686066289713281</v>
+        <v>1.5462185811337217</v>
       </c>
       <c r="M47">
         <f t="shared" si="0"/>
@@ -14037,19 +12359,19 @@
       </c>
       <c r="AD47">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC47+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC47)),2))/(2*(100 - AC47))</f>
-        <v>3.6020455667352982</v>
+        <v>2.9264116140001302</v>
       </c>
       <c r="AE47">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC47+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC47)))))/(100-AC47),4)/(2*(0.457+0.494/(100-AC47)+0.045/POWER(100-AC47,2)))</f>
-        <v>3.3145119115758348</v>
+        <v>2.804050130708966</v>
       </c>
       <c r="AF47">
         <f t="shared" si="4"/>
-        <v>-0.60204556673529819</v>
+        <v>7.3588385999869832E-2</v>
       </c>
       <c r="AG47">
         <f t="shared" si="2"/>
-        <v>-0.3145119115758348</v>
+        <v>0.19594986929103397</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
@@ -14057,11 +12379,11 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.2352370504231658</v>
+        <v>-1.5576006262563169</v>
       </c>
       <c r="L48">
         <f t="shared" si="3"/>
-        <v>1.950144920000175</v>
+        <v>-2.2848191751059259</v>
       </c>
       <c r="M48">
         <f t="shared" si="0"/>
@@ -14079,19 +12401,19 @@
       </c>
       <c r="AD48">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC48+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC48)),2))/(2*(100 - AC48))</f>
-        <v>4.1242075873129584</v>
+        <v>3.088591484162563</v>
       </c>
       <c r="AE48">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC48+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC48)))))/(100-AC48),4)/(2*(0.457+0.494/(100-AC48)+0.045/POWER(100-AC48,2)))</f>
-        <v>5.0310134511373175</v>
+        <v>3.7135067532652912</v>
       </c>
       <c r="AF48">
         <f t="shared" si="4"/>
-        <v>-1.1242075873129584</v>
+        <v>-8.8591484162563017E-2</v>
       </c>
       <c r="AG48">
         <f t="shared" si="2"/>
-        <v>-2.0310134511373175</v>
+        <v>-0.71350675326529123</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
@@ -14099,11 +12421,11 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.34999743547814433</v>
+        <v>-0.94484676083084196</v>
       </c>
       <c r="L49">
         <f t="shared" si="3"/>
-        <v>-0.15579374179796518</v>
+        <v>-2.1050757359868375</v>
       </c>
       <c r="M49">
         <f t="shared" si="0"/>
@@ -14121,19 +12443,19 @@
       </c>
       <c r="AD49">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC49+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC49)),2))/(2*(100 - AC49))</f>
-        <v>3.6900160933515616</v>
+        <v>3.2029595126145041</v>
       </c>
       <c r="AE49">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC49+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC49)))))/(100-AC49),4)/(2*(0.457+0.494/(100-AC49)+0.045/POWER(100-AC49,2)))</f>
-        <v>3.6941563848558849</v>
+        <v>3.1587845799413659</v>
       </c>
       <c r="AF49">
         <f t="shared" si="4"/>
-        <v>-0.69001609335156155</v>
+        <v>-0.20295951261450407</v>
       </c>
       <c r="AG49">
         <f t="shared" si="2"/>
-        <v>-0.69415638485588493</v>
+        <v>-0.15878457994136586</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
@@ -14141,11 +12463,11 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.71487647801404819</v>
+        <v>-1.8575428839540109</v>
       </c>
       <c r="L50">
         <f t="shared" si="3"/>
-        <v>-1.2417479223754964</v>
+        <v>-3.6059506154043905</v>
       </c>
       <c r="M50">
         <f t="shared" si="0"/>
@@ -14163,19 +12485,19 @@
       </c>
       <c r="AD50">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC50+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC50)),2))/(2*(100 - AC50))</f>
-        <v>4.676980854509079</v>
+        <v>2.5323588819134111</v>
       </c>
       <c r="AE50">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC50+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC50)))))/(100-AC50),4)/(2*(0.457+0.494/(100-AC50)+0.045/POWER(100-AC50,2)))</f>
-        <v>4.7599246479625776</v>
+        <v>2.7922094468621208</v>
       </c>
       <c r="AF50">
         <f t="shared" si="4"/>
-        <v>-1.676980854509079</v>
+        <v>0.46764111808658892</v>
       </c>
       <c r="AG50">
         <f t="shared" si="2"/>
-        <v>-1.7599246479625776</v>
+        <v>0.2077905531378792</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.3">
@@ -14183,11 +12505,11 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.78876382758608088</v>
+        <v>-0.67398559622233734</v>
       </c>
       <c r="L51">
         <f t="shared" si="3"/>
-        <v>1.0546644078563809</v>
+        <v>-1.9425424885863132</v>
       </c>
       <c r="M51">
         <f t="shared" si="0"/>
@@ -14205,19 +12527,19 @@
       </c>
       <c r="AD51">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC51+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC51)),2))/(2*(100 - AC51))</f>
-        <v>4.2098811225221944</v>
+        <v>2.6552973365504391</v>
       </c>
       <c r="AE51">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC51+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC51)))))/(100-AC51),4)/(2*(0.457+0.494/(100-AC51)+0.045/POWER(100-AC51,2)))</f>
-        <v>3.1532329699943404</v>
+        <v>3.3582951531613743</v>
       </c>
       <c r="AF51">
         <f t="shared" si="4"/>
-        <v>-1.2098811225221944</v>
+        <v>0.34470266344956091</v>
       </c>
       <c r="AG51">
         <f t="shared" si="2"/>
-        <v>-0.15323296999434044</v>
+        <v>-0.35829515316137428</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
@@ -14225,11 +12547,11 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-2.0082370610907674</v>
+        <v>0.10303438102710061</v>
       </c>
       <c r="L52">
         <f t="shared" si="3"/>
-        <v>-3.1553468511550755</v>
+        <v>-0.25947826918450023</v>
       </c>
       <c r="M52">
         <f t="shared" si="0"/>
@@ -14247,19 +12569,19 @@
       </c>
       <c r="AD52">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC52+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC52)),2))/(2*(100 - AC52))</f>
-        <v>3.7956159894647978</v>
+        <v>3.010018361332969</v>
       </c>
       <c r="AE52">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC52+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC52)))))/(100-AC52),4)/(2*(0.457+0.494/(100-AC52)+0.045/POWER(100-AC52,2)))</f>
-        <v>4.2224607848182512</v>
+        <v>3.3561422796129845</v>
       </c>
       <c r="AF52">
         <f t="shared" si="4"/>
-        <v>-0.79561598946479783</v>
+        <v>-1.0018361332968961E-2</v>
       </c>
       <c r="AG52">
         <f t="shared" si="2"/>
-        <v>-1.2224607848182512</v>
+        <v>-0.3561422796129845</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
@@ -14267,11 +12589,11 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>3.2971729524433613</v>
+        <v>-0.46023956201679539</v>
       </c>
       <c r="L53">
         <f t="shared" si="3"/>
-        <v>4.8628393142892943</v>
+        <v>-0.83495830374838831</v>
       </c>
       <c r="M53">
         <f t="shared" si="0"/>
@@ -14289,19 +12611,19 @@
       </c>
       <c r="AD53">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC53+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC53)),2))/(2*(100 - AC53))</f>
-        <v>3.6478866851170926</v>
+        <v>3.0951899585133749</v>
       </c>
       <c r="AE53">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC53+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC53)))))/(100-AC53),4)/(2*(0.457+0.494/(100-AC53)+0.045/POWER(100-AC53,2)))</f>
-        <v>3.9803784477367357</v>
+        <v>3.874630820758699</v>
       </c>
       <c r="AF53">
         <f t="shared" si="4"/>
-        <v>-0.64788668511709258</v>
+        <v>-9.5189958513374862E-2</v>
       </c>
       <c r="AG53">
         <f t="shared" si="2"/>
-        <v>-0.98037844773673566</v>
+        <v>-0.87463082075869902</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
@@ -14309,11 +12631,11 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2.6816451281774789E-2</v>
+        <v>-1.8246328181703575</v>
       </c>
       <c r="L54">
         <f t="shared" si="3"/>
-        <v>1.1303225684635669</v>
+        <v>-3.2669842977582011</v>
       </c>
       <c r="M54">
         <f t="shared" si="0"/>
@@ -14331,19 +12653,19 @@
       </c>
       <c r="AD54">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC54+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC54)),2))/(2*(100 - AC54))</f>
-        <v>2.7067719716873371</v>
+        <v>2.888608874440624</v>
       </c>
       <c r="AE54">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC54+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC54)))))/(100-AC54),4)/(2*(0.457+0.494/(100-AC54)+0.045/POWER(100-AC54,2)))</f>
-        <v>2.3700242994611842</v>
+        <v>2.6680227020146412</v>
       </c>
       <c r="AF54">
         <f t="shared" si="4"/>
-        <v>0.29322802831266293</v>
+        <v>0.11139112555937603</v>
       </c>
       <c r="AG54">
         <f t="shared" si="2"/>
-        <v>0.6299757005388158</v>
+        <v>0.3319772979853588</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
@@ -14351,11 +12673,11 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.29295733838807791</v>
+        <v>-0.93924427346792072</v>
       </c>
       <c r="L55">
         <f t="shared" si="3"/>
-        <v>0.74683338787942799</v>
+        <v>-2.314767249953857</v>
       </c>
       <c r="M55">
         <f t="shared" si="0"/>
@@ -14373,19 +12695,19 @@
       </c>
       <c r="AD55">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC55+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC55)),2))/(2*(100 - AC55))</f>
-        <v>3.4839328774437228</v>
+        <v>3.0212771895877459</v>
       </c>
       <c r="AE55">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC55+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC55)))))/(100-AC55),4)/(2*(0.457+0.494/(100-AC55)+0.045/POWER(100-AC55,2)))</f>
-        <v>3.7344845017317483</v>
+        <v>2.8224035746237162</v>
       </c>
       <c r="AF55">
         <f t="shared" si="4"/>
-        <v>-0.48393287744372282</v>
+        <v>-2.1277189587745937E-2</v>
       </c>
       <c r="AG55">
         <f t="shared" si="2"/>
-        <v>-0.73448450173174828</v>
+        <v>0.17759642537628384</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
@@ -14393,11 +12715,11 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2.2682070266455412</v>
+        <v>-1.2570194485306274</v>
       </c>
       <c r="L56">
         <f t="shared" si="3"/>
-        <v>3.9962443394539449</v>
+        <v>-2.638825265333042</v>
       </c>
       <c r="M56">
         <f t="shared" si="0"/>
@@ -14415,19 +12737,19 @@
       </c>
       <c r="AD56">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC56+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC56)),2))/(2*(100 - AC56))</f>
-        <v>2.8234900638597416</v>
+        <v>2.2934744420542401</v>
       </c>
       <c r="AE56">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC56+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC56)))))/(100-AC56),4)/(2*(0.457+0.494/(100-AC56)+0.045/POWER(100-AC56,2)))</f>
-        <v>2.8871339596318415</v>
+        <v>2.2239354299503589</v>
       </c>
       <c r="AF56">
         <f t="shared" si="4"/>
-        <v>0.17650993614025845</v>
+        <v>0.70652555794575989</v>
       </c>
       <c r="AG56">
         <f t="shared" si="2"/>
-        <v>0.1128660403681585</v>
+        <v>0.77606457004964113</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.3">
@@ -14435,11 +12757,11 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.4420038496609777E-2</v>
+        <v>-0.6784080142097082</v>
       </c>
       <c r="L57">
         <f t="shared" si="3"/>
-        <v>0.91602919431592711</v>
+        <v>-1.7342143918381732</v>
       </c>
       <c r="M57">
         <f t="shared" si="0"/>
@@ -14457,19 +12779,19 @@
       </c>
       <c r="AD57">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC57+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC57)),2))/(2*(100 - AC57))</f>
-        <v>3.4209654690030828</v>
+        <v>2.4079100320981763</v>
       </c>
       <c r="AE57">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC57+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC57)))))/(100-AC57),4)/(2*(0.457+0.494/(100-AC57)+0.045/POWER(100-AC57,2)))</f>
-        <v>3.4729425406903278</v>
+        <v>2.447978763208992</v>
       </c>
       <c r="AF57">
         <f t="shared" si="4"/>
-        <v>-0.42096546900308285</v>
+        <v>0.59208996790182367</v>
       </c>
       <c r="AG57">
         <f t="shared" si="2"/>
-        <v>-0.47294254069032782</v>
+        <v>0.55202123679100801</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
@@ -14477,11 +12799,11 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-0.11865950000355951</v>
+        <v>0.12513282854342833</v>
       </c>
       <c r="L58">
         <f t="shared" si="3"/>
-        <v>4.0510005969879026E-3</v>
+        <v>-0.17568333374676179</v>
       </c>
       <c r="M58">
         <f t="shared" si="0"/>
@@ -14499,19 +12821,19 @@
       </c>
       <c r="AD58">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC58+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC58)),2))/(2*(100 - AC58))</f>
-        <v>3.4140846052434237</v>
+        <v>2.4400591990684388</v>
       </c>
       <c r="AE58">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC58+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC58)))))/(100-AC58),4)/(2*(0.457+0.494/(100-AC58)+0.045/POWER(100-AC58,2)))</f>
-        <v>3.376588845935689</v>
+        <v>2.6993988586211732</v>
       </c>
       <c r="AF58">
         <f t="shared" si="4"/>
-        <v>-0.41408460524342372</v>
+        <v>0.55994080093156118</v>
       </c>
       <c r="AG58">
         <f t="shared" si="2"/>
-        <v>-0.37658884593568898</v>
+        <v>0.30060114137882676</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.3">
@@ -14519,11 +12841,11 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.29271859602886252</v>
+        <v>-0.47637286115786992</v>
       </c>
       <c r="L59">
         <f t="shared" si="3"/>
-        <v>-0.49331734309015618</v>
+        <v>-0.84350032222472127</v>
       </c>
       <c r="M59">
         <f t="shared" si="0"/>
@@ -14541,19 +12863,19 @@
       </c>
       <c r="AD59">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC59+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC59)),2))/(2*(100 - AC59))</f>
-        <v>3.7602474423092036</v>
+        <v>2.403697072648129</v>
       </c>
       <c r="AE59">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC59+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC59)))))/(100-AC59),4)/(2*(0.457+0.494/(100-AC59)+0.045/POWER(100-AC59,2)))</f>
-        <v>3.9768048089563197</v>
+        <v>2.9299778705605517</v>
       </c>
       <c r="AF59">
         <f t="shared" si="4"/>
-        <v>-0.7602474423092036</v>
+        <v>0.59630292735187096</v>
       </c>
       <c r="AG59">
         <f t="shared" si="2"/>
-        <v>-0.97680480895631971</v>
+        <v>7.00221294394483E-2</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.3">
@@ -14561,11 +12883,11 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.7089178072637878</v>
+        <v>1.212906681757886</v>
       </c>
       <c r="L60">
         <f t="shared" si="3"/>
-        <v>2.7752346264917742</v>
+        <v>1.8596412492321486</v>
       </c>
       <c r="M60">
         <f t="shared" si="0"/>
@@ -14583,19 +12905,19 @@
       </c>
       <c r="AD60">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC60+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC60)),2))/(2*(100 - AC60))</f>
-        <v>3.3091469188993337</v>
+        <v>3.2793379270511736</v>
       </c>
       <c r="AE60">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC60+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC60)))))/(100-AC60),4)/(2*(0.457+0.494/(100-AC60)+0.045/POWER(100-AC60,2)))</f>
-        <v>2.857485740911589</v>
+        <v>2.8550501589959243</v>
       </c>
       <c r="AF60">
         <f t="shared" si="4"/>
-        <v>-0.30914691889933366</v>
+        <v>-0.27933792705117355</v>
       </c>
       <c r="AG60">
         <f t="shared" si="2"/>
-        <v>0.14251425908841098</v>
+        <v>0.14494984100407571</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.3">
@@ -14603,11 +12925,11 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.19683284335769713</v>
+        <v>-0.21903360902797431</v>
       </c>
       <c r="L61">
         <f t="shared" si="3"/>
-        <v>0.95156786883361233</v>
+        <v>4.5129321456433114E-2</v>
       </c>
       <c r="M61">
         <f t="shared" si="0"/>
@@ -14625,19 +12947,19 @@
       </c>
       <c r="AD61">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC61+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC61)),2))/(2*(100 - AC61))</f>
-        <v>2.9616287237260419</v>
+        <v>3.4765376086622419</v>
       </c>
       <c r="AE61">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC61+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC61)))))/(100-AC61),4)/(2*(0.457+0.494/(100-AC61)+0.045/POWER(100-AC61,2)))</f>
-        <v>2.5589997744049073</v>
+        <v>3.7328302907451945</v>
       </c>
       <c r="AF61">
         <f t="shared" si="4"/>
-        <v>3.8371276273958088E-2</v>
+        <v>-0.47653760866224193</v>
       </c>
       <c r="AG61">
         <f t="shared" si="2"/>
-        <v>0.44100022559509267</v>
+        <v>-0.73283029074519446</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.3">
@@ -14645,11 +12967,11 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.2165855878265575</v>
+        <v>-1.519870238553267</v>
       </c>
       <c r="L62">
         <f t="shared" si="3"/>
-        <v>2.266386506432255</v>
+        <v>-2.5560540985066691</v>
       </c>
       <c r="M62">
         <f t="shared" si="0"/>
@@ -14667,19 +12989,19 @@
       </c>
       <c r="AD62">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC62+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC62)),2))/(2*(100 - AC62))</f>
-        <v>3.0961844721072675</v>
+        <v>4.1022641751748772</v>
       </c>
       <c r="AE62">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC62+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC62)))))/(100-AC62),4)/(2*(0.457+0.494/(100-AC62)+0.045/POWER(100-AC62,2)))</f>
-        <v>3.9081356795372408</v>
+        <v>3.6432883068112178</v>
       </c>
       <c r="AF62">
         <f t="shared" si="4"/>
-        <v>-9.6184472107267549E-2</v>
+        <v>-1.1022641751748772</v>
       </c>
       <c r="AG62">
         <f t="shared" si="2"/>
-        <v>-0.90813567953724084</v>
+        <v>-0.64328830681121785</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.3">
@@ -14687,11 +13009,11 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.29927150535513647</v>
+        <v>-1.2675400284933858</v>
       </c>
       <c r="L63">
         <f t="shared" si="3"/>
-        <v>4.1411674635838391E-4</v>
+        <v>-2.7104264119617971</v>
       </c>
       <c r="M63">
         <f t="shared" si="0"/>
@@ -14709,19 +13031,19 @@
       </c>
       <c r="AD63">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC63+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC63)),2))/(2*(100 - AC63))</f>
-        <v>3.4775704353317236</v>
+        <v>3.4826803842925891</v>
       </c>
       <c r="AE63">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC63+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC63)))))/(100-AC63),4)/(2*(0.457+0.494/(100-AC63)+0.045/POWER(100-AC63,2)))</f>
-        <v>3.0585126176484287</v>
+        <v>3.8090051505171414</v>
       </c>
       <c r="AF63">
         <f t="shared" si="4"/>
-        <v>-0.47757043533172361</v>
+        <v>-0.48268038429258908</v>
       </c>
       <c r="AG63">
         <f t="shared" si="2"/>
-        <v>-5.8512617648428744E-2</v>
+        <v>-0.80900515051714139</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.3">
@@ -14729,11 +13051,11 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.60123284129076637</v>
+        <v>-4.350340532255359E-2</v>
       </c>
       <c r="L64">
         <f t="shared" si="3"/>
-        <v>-1.0150191983798122</v>
+        <v>-0.6782283104913247</v>
       </c>
       <c r="M64">
         <f t="shared" si="0"/>
@@ -14751,19 +13073,19 @@
       </c>
       <c r="AD64">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC64+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC64)),2))/(2*(100 - AC64))</f>
-        <v>3.3091936000131015</v>
+        <v>2.7540852672155625</v>
       </c>
       <c r="AE64">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC64+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC64)))))/(100-AC64),4)/(2*(0.457+0.494/(100-AC64)+0.045/POWER(100-AC64,2)))</f>
-        <v>3.6340441107294161</v>
+        <v>2.4360925382397722</v>
       </c>
       <c r="AF64">
         <f t="shared" si="4"/>
-        <v>-0.30919360001310148</v>
+        <v>0.24591473278443754</v>
       </c>
       <c r="AG64">
         <f t="shared" si="2"/>
-        <v>-0.63404411072941613</v>
+        <v>0.56390746176022777</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.3">
@@ -14771,11 +13093,11 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1.8422997527522966</v>
+        <v>1.6756121112848632</v>
       </c>
       <c r="L65">
         <f t="shared" si="3"/>
-        <v>-3.3369898746054538</v>
+        <v>2.6777426256506853</v>
       </c>
       <c r="M65">
         <f t="shared" si="0"/>
@@ -14793,19 +13115,19 @@
       </c>
       <c r="AD65">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC65+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC65)),2))/(2*(100 - AC65))</f>
-        <v>3.3456380836000652</v>
+        <v>2.6811385149802986</v>
       </c>
       <c r="AE65">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC65+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC65)))))/(100-AC65),4)/(2*(0.457+0.494/(100-AC65)+0.045/POWER(100-AC65,2)))</f>
-        <v>3.7840870026639544</v>
+        <v>2.0291377120203276</v>
       </c>
       <c r="AF65">
         <f t="shared" si="4"/>
-        <v>-0.3456380836000652</v>
+        <v>0.31886148501970135</v>
       </c>
       <c r="AG65">
         <f t="shared" si="2"/>
-        <v>-0.78408700266395437</v>
+        <v>0.97086228797967244</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.3">
@@ -14813,11 +13135,11 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-0.56039084483927581</v>
+        <v>1.4295846995082684</v>
       </c>
       <c r="L66">
         <f t="shared" si="3"/>
-        <v>-1.6907377331170825</v>
+        <v>3.0111723390042564</v>
       </c>
       <c r="M66">
         <f t="shared" si="0"/>
@@ -14835,19 +13157,19 @@
       </c>
       <c r="AD66">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC66+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC66)),2))/(2*(100 - AC66))</f>
-        <v>3.5982070170328129</v>
+        <v>2.4059011312238665</v>
       </c>
       <c r="AE66">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC66+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC66)))))/(100-AC66),4)/(2*(0.457+0.494/(100-AC66)+0.045/POWER(100-AC66,2)))</f>
-        <v>3.6032638285864715</v>
+        <v>2.6482545950453305</v>
       </c>
       <c r="AF66">
         <f t="shared" si="4"/>
-        <v>-0.59820701703281287</v>
+        <v>0.59409886877613349</v>
       </c>
       <c r="AG66">
         <f t="shared" si="2"/>
-        <v>-0.60326382858647154</v>
+        <v>0.35174540495466955</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.3">
@@ -14855,11 +13177,11 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1.5047453416627832</v>
+        <v>0.59346007219573949</v>
       </c>
       <c r="L67">
         <f t="shared" si="3"/>
-        <v>2.1633326039379157</v>
+        <v>1.6738715515738287</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M101" si="5">$H$2 * EXP(- ($I$2 * O67))</f>
@@ -14877,19 +13199,19 @@
       </c>
       <c r="AD67">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC67+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC67)),2))/(2*(100 - AC67))</f>
-        <v>2.9083499636097243</v>
+        <v>2.6323318824584758</v>
       </c>
       <c r="AE67">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC67+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC67)))))/(100-AC67),4)/(2*(0.457+0.494/(100-AC67)+0.045/POWER(100-AC67,2)))</f>
-        <v>3.5216847108200242</v>
+        <v>2.5207897634550624</v>
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67:AF101" si="7">N67-AD67</f>
-        <v>9.1650036390275691E-2</v>
+        <v>0.36766811754152418</v>
       </c>
       <c r="AG67">
         <f t="shared" ref="AG67:AG101" si="8">N67-AE67</f>
-        <v>-0.52168471082002421</v>
+        <v>0.47921023654493755</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.3">
@@ -14897,11 +13219,11 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.68516328610712662</v>
+        <v>-1.1826568879769184</v>
       </c>
       <c r="L68">
         <f t="shared" ref="L68:L101" si="9">$J$2*B68+$K$2*L67</f>
-        <v>-0.6741136269229403</v>
+        <v>-1.6232871315782149</v>
       </c>
       <c r="M68">
         <f t="shared" si="5"/>
@@ -14919,19 +13241,19 @@
       </c>
       <c r="AD68">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC68+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC68)),2))/(2*(100 - AC68))</f>
-        <v>4.1333886170997252</v>
+        <v>2.49608693819714</v>
       </c>
       <c r="AE68">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC68+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC68)))))/(100-AC68),4)/(2*(0.457+0.494/(100-AC68)+0.045/POWER(100-AC68,2)))</f>
-        <v>3.7510368095951705</v>
+        <v>2.2195271383032438</v>
       </c>
       <c r="AF68">
         <f t="shared" si="7"/>
-        <v>-1.1333886170997252</v>
+        <v>0.50391306180286</v>
       </c>
       <c r="AG68">
         <f t="shared" si="8"/>
-        <v>-0.7510368095951705</v>
+        <v>0.78047286169675623</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.3">
@@ -14939,11 +13261,11 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.25973577066906728</v>
+        <v>-0.63849938669591211</v>
       </c>
       <c r="L69">
         <f t="shared" si="9"/>
-        <v>0.28811850431827024</v>
+        <v>-1.4402361377840522</v>
       </c>
       <c r="M69">
         <f t="shared" si="5"/>
@@ -14956,36 +13278,36 @@
       <c r="O69">
         <v>67</v>
       </c>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
       <c r="AC69">
         <v>67</v>
       </c>
       <c r="AD69">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC69+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC69)),2))/(2*(100 - AC69))</f>
-        <v>2.8358098252197994</v>
+        <v>2.1172837510382507</v>
       </c>
       <c r="AE69">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC69+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC69)))))/(100-AC69),4)/(2*(0.457+0.494/(100-AC69)+0.045/POWER(100-AC69,2)))</f>
-        <v>3.3800412221935625</v>
+        <v>2.0035161917650259</v>
       </c>
       <c r="AF69">
         <f t="shared" si="7"/>
-        <v>0.16419017478020059</v>
+        <v>0.88271624896174927</v>
       </c>
       <c r="AG69">
         <f t="shared" si="8"/>
-        <v>-0.38004122219356251</v>
+        <v>0.99648380823497407</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.3">
@@ -14993,11 +13315,11 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-2.4609835236333311</v>
+        <v>-0.80188328865915537</v>
       </c>
       <c r="L70">
         <f t="shared" si="9"/>
-        <v>-4.0907960119536213</v>
+        <v>-1.6752466221328146</v>
       </c>
       <c r="M70">
         <f t="shared" si="5"/>
@@ -15010,36 +13332,36 @@
       <c r="O70">
         <v>68</v>
       </c>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
       <c r="AC70">
         <v>68</v>
       </c>
       <c r="AD70">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC70+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC70)),2))/(2*(100 - AC70))</f>
-        <v>4.1746590192632436</v>
+        <v>1.577102316738475</v>
       </c>
       <c r="AE70">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC70+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC70)))))/(100-AC70),4)/(2*(0.457+0.494/(100-AC70)+0.045/POWER(100-AC70,2)))</f>
-        <v>4.3321034539541339</v>
+        <v>1.5467471711485927</v>
       </c>
       <c r="AF70">
         <f t="shared" si="7"/>
-        <v>-1.1746590192632436</v>
+        <v>1.422897683261525</v>
       </c>
       <c r="AG70">
         <f t="shared" si="8"/>
-        <v>-1.3321034539541339</v>
+        <v>1.4532528288514073</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.3">
@@ -15047,11 +13369,11 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.8873530532582663</v>
+        <v>0.34926642911159433</v>
       </c>
       <c r="L71">
         <f t="shared" si="9"/>
-        <v>0.58541227185437195</v>
+        <v>0.21589762394839135</v>
       </c>
       <c r="M71">
         <f t="shared" si="5"/>
@@ -15064,36 +13386,36 @@
       <c r="O71">
         <v>69</v>
       </c>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
       <c r="AC71">
         <v>69</v>
       </c>
       <c r="AD71">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC71+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC71)),2))/(2*(100 - AC71))</f>
-        <v>3.8779102954753926</v>
+        <v>1.6988068812538395</v>
       </c>
       <c r="AE71">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC71+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC71)))))/(100-AC71),4)/(2*(0.457+0.494/(100-AC71)+0.045/POWER(100-AC71,2)))</f>
-        <v>2.9805106618110568</v>
+        <v>1.7198218864599251</v>
       </c>
       <c r="AF71">
         <f t="shared" si="7"/>
-        <v>-0.87791029547539257</v>
+        <v>1.3011931187461605</v>
       </c>
       <c r="AG71">
         <f t="shared" si="8"/>
-        <v>1.9489338188943162E-2</v>
+        <v>1.2801781135400749</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.3">
@@ -15101,11 +13423,11 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>8.3595068645081483E-2</v>
+        <v>0.8515166882716585</v>
       </c>
       <c r="L72">
         <f t="shared" si="9"/>
-        <v>0.27176366736080643</v>
+        <v>1.4858599857113173</v>
       </c>
       <c r="M72">
         <f t="shared" si="5"/>
@@ -15118,36 +13440,36 @@
       <c r="O72">
         <v>70</v>
       </c>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
       <c r="AC72">
         <v>70</v>
       </c>
       <c r="AD72">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC72+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC72)),2))/(2*(100 - AC72))</f>
-        <v>3.0028666722503679</v>
+        <v>2.6899419061952545</v>
       </c>
       <c r="AE72">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC72+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC72)))))/(100-AC72),4)/(2*(0.457+0.494/(100-AC72)+0.045/POWER(100-AC72,2)))</f>
-        <v>3.1496113640778263</v>
+        <v>2.8675577156166985</v>
       </c>
       <c r="AF72">
         <f t="shared" si="7"/>
-        <v>-2.8666722503678521E-3</v>
+        <v>0.31005809380474547</v>
       </c>
       <c r="AG72">
         <f t="shared" si="8"/>
-        <v>-0.14961136407782627</v>
+        <v>0.13244228438330152</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.3">
@@ -15155,11 +13477,11 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1.1448628356447443</v>
+        <v>0.4762023309012875</v>
       </c>
       <c r="L73">
         <f t="shared" si="9"/>
-        <v>1.9936061757529484</v>
+        <v>1.1355523279312747</v>
       </c>
       <c r="M73">
         <f t="shared" si="5"/>
@@ -15172,36 +13494,36 @@
       <c r="O73">
         <v>71</v>
       </c>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
       <c r="AC73">
         <v>71</v>
       </c>
       <c r="AD73">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC73+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC73)),2))/(2*(100 - AC73))</f>
-        <v>3.2824809935308341</v>
+        <v>2.8596733057940145</v>
       </c>
       <c r="AE73">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC73+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC73)))))/(100-AC73),4)/(2*(0.457+0.494/(100-AC73)+0.045/POWER(100-AC73,2)))</f>
-        <v>3.7277058785481301</v>
+        <v>2.1642287125046451</v>
       </c>
       <c r="AF73">
         <f t="shared" si="7"/>
-        <v>-0.28248099353083411</v>
+        <v>0.14032669420598554</v>
       </c>
       <c r="AG73">
         <f t="shared" si="8"/>
-        <v>-0.72770587854813007</v>
+        <v>0.8357712874953549</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.3">
@@ -15209,11 +13531,11 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1.298019469686551</v>
+        <v>-0.54790348258393351</v>
       </c>
       <c r="L74">
         <f t="shared" si="9"/>
-        <v>-1.7467209715102143</v>
+        <v>-0.67169521898216411</v>
       </c>
       <c r="M74">
         <f t="shared" si="5"/>
@@ -15226,36 +13548,36 @@
       <c r="O74">
         <v>72</v>
       </c>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="5"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
       <c r="AC74">
         <v>72</v>
       </c>
       <c r="AD74">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC74+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC74)),2))/(2*(100 - AC74))</f>
-        <v>1.9379257831644165</v>
+        <v>3.4151276803745376</v>
       </c>
       <c r="AE74">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC74+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC74)))))/(100-AC74),4)/(2*(0.457+0.494/(100-AC74)+0.045/POWER(100-AC74,2)))</f>
-        <v>1.7868702274765882</v>
+        <v>3.11980845520976</v>
       </c>
       <c r="AF74">
         <f t="shared" si="7"/>
-        <v>1.0620742168355835</v>
+        <v>-0.41512768037453762</v>
       </c>
       <c r="AG74">
         <f t="shared" si="8"/>
-        <v>1.2131297725234118</v>
+        <v>-0.11980845520976002</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.3">
@@ -15263,11 +13585,11 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1.4936858860892244</v>
+        <v>-1.5769364836160094</v>
       </c>
       <c r="L75">
         <f t="shared" si="9"/>
-        <v>2.1321684528380325</v>
+        <v>-2.8123489787697928</v>
       </c>
       <c r="M75">
         <f t="shared" si="5"/>
@@ -15280,36 +13602,36 @@
       <c r="O75">
         <v>73</v>
       </c>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
       <c r="AC75">
         <v>73</v>
       </c>
       <c r="AD75">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC75+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC75)),2))/(2*(100 - AC75))</f>
-        <v>2.1981171609826982</v>
+        <v>2.7367747922083567</v>
       </c>
       <c r="AE75">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC75+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC75)))))/(100-AC75),4)/(2*(0.457+0.494/(100-AC75)+0.045/POWER(100-AC75,2)))</f>
-        <v>2.3738166263923808</v>
+        <v>2.185883473172308</v>
       </c>
       <c r="AF75">
         <f t="shared" si="7"/>
-        <v>0.80188283901730184</v>
+        <v>0.26322520779164327</v>
       </c>
       <c r="AG75">
         <f t="shared" si="8"/>
-        <v>0.62618337360761922</v>
+        <v>0.81411652682769198</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.3">
@@ -15317,11 +13639,11 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.50172161536465865</v>
+        <v>-9.9112185125704855E-2</v>
       </c>
       <c r="L76">
         <f t="shared" si="9"/>
-        <v>1.3228495781622271</v>
+        <v>-0.7948592546273433</v>
       </c>
       <c r="M76">
         <f t="shared" si="5"/>
@@ -15334,36 +13656,36 @@
       <c r="O76">
         <v>74</v>
       </c>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
       <c r="AC76">
         <v>74</v>
       </c>
       <c r="AD76">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC76+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC76)),2))/(2*(100 - AC76))</f>
-        <v>1.8971341523997578</v>
+        <v>2.8358543709703121</v>
       </c>
       <c r="AE76">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC76+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC76)))))/(100-AC76),4)/(2*(0.457+0.494/(100-AC76)+0.045/POWER(100-AC76,2)))</f>
-        <v>1.9679146123713349</v>
+        <v>2.3383022685912191</v>
       </c>
       <c r="AF76">
         <f t="shared" si="7"/>
-        <v>1.1028658476002422</v>
+        <v>0.16414562902968788</v>
       </c>
       <c r="AG76">
         <f t="shared" si="8"/>
-        <v>1.0320853876286651</v>
+        <v>0.66169773140878085</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.3">
@@ -15371,11 +13693,11 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.75425305112730712</v>
+        <v>-0.75934622145723552</v>
       </c>
       <c r="L77">
         <f t="shared" si="9"/>
-        <v>1.568636033814804</v>
+        <v>-1.4594246930427215</v>
       </c>
       <c r="M77">
         <f t="shared" si="5"/>
@@ -15388,36 +13710,36 @@
       <c r="O77">
         <v>75</v>
       </c>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
       <c r="AC77">
         <v>75</v>
       </c>
       <c r="AD77">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC77+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC77)),2))/(2*(100 - AC77))</f>
-        <v>1.2040753594522171</v>
+        <v>2.438245070806917</v>
       </c>
       <c r="AE77">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC77+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC77)))))/(100-AC77),4)/(2*(0.457+0.494/(100-AC77)+0.045/POWER(100-AC77,2)))</f>
-        <v>1.2891567967716049</v>
+        <v>2.5792150824089157</v>
       </c>
       <c r="AF77">
         <f t="shared" si="7"/>
-        <v>1.7959246405477829</v>
+        <v>0.56175492919308301</v>
       </c>
       <c r="AG77">
         <f t="shared" si="8"/>
-        <v>1.7108432032283951</v>
+        <v>0.42078491759108427</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.3">
@@ -15425,11 +13747,11 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-7.8146058513084427E-2</v>
+        <v>-0.52212840273568872</v>
       </c>
       <c r="L78">
         <f t="shared" si="9"/>
-        <v>0.2180694947710671</v>
+        <v>-1.2071946380943575</v>
       </c>
       <c r="M78">
         <f t="shared" si="5"/>
@@ -15442,36 +13764,36 @@
       <c r="O78">
         <v>76</v>
       </c>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
       <c r="AC78">
         <v>76</v>
       </c>
       <c r="AD78">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC78+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC78)),2))/(2*(100 - AC78))</f>
-        <v>1.8757790946081778</v>
+        <v>2.2534450102167849</v>
       </c>
       <c r="AE78">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC78+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC78)))))/(100-AC78),4)/(2*(0.457+0.494/(100-AC78)+0.045/POWER(100-AC78,2)))</f>
-        <v>1.886307397608773</v>
+        <v>1.7961998579383385</v>
       </c>
       <c r="AF78">
         <f t="shared" si="7"/>
-        <v>1.1242209053918222</v>
+        <v>0.74655498978321511</v>
       </c>
       <c r="AG78">
         <f t="shared" si="8"/>
-        <v>1.113692602391227</v>
+        <v>1.2038001420616615</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.3">
@@ -15479,11 +13801,11 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2.0495645003393292</v>
+        <v>0.29319721761567052</v>
       </c>
       <c r="L79">
         <f t="shared" si="9"/>
-        <v>3.5091087366095857</v>
+        <v>0.22566780735688574</v>
       </c>
       <c r="M79">
         <f t="shared" si="5"/>
@@ -15496,36 +13818,36 @@
       <c r="O79">
         <v>77</v>
       </c>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
       <c r="AC79">
         <v>77</v>
       </c>
       <c r="AD79">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC79+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC79)),2))/(2*(100 - AC79))</f>
-        <v>1.8987289246000909</v>
+        <v>1.8585546055808597</v>
       </c>
       <c r="AE79">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC79+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC79)))))/(100-AC79),4)/(2*(0.457+0.494/(100-AC79)+0.045/POWER(100-AC79,2)))</f>
-        <v>2.5082852252395651</v>
+        <v>2.1517494356877713</v>
       </c>
       <c r="AF79">
         <f t="shared" si="7"/>
-        <v>1.1012710753999091</v>
+        <v>1.1414453944191403</v>
       </c>
       <c r="AG79">
         <f t="shared" si="8"/>
-        <v>0.4917147747604349</v>
+        <v>0.84825056431222867</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.3">
@@ -15533,11 +13855,11 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1.3282738109410275</v>
+        <v>0.24678001864231192</v>
       </c>
       <c r="L80">
         <f t="shared" si="9"/>
-        <v>3.0256235613026123</v>
+        <v>0.46701260208048423</v>
       </c>
       <c r="M80">
         <f t="shared" si="5"/>
@@ -15550,36 +13872,36 @@
       <c r="O80">
         <v>78</v>
       </c>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
       <c r="AC80">
         <v>78</v>
       </c>
       <c r="AD80">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC80+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC80)),2))/(2*(100 - AC80))</f>
-        <v>1.6423789293673077</v>
+        <v>1.5356626479016748</v>
       </c>
       <c r="AE80">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC80+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC80)))))/(100-AC80),4)/(2*(0.457+0.494/(100-AC80)+0.045/POWER(100-AC80,2)))</f>
-        <v>1.696023033069993</v>
+        <v>1.8216956572499516</v>
       </c>
       <c r="AF80">
         <f t="shared" si="7"/>
-        <v>1.3576210706326923</v>
+        <v>1.4643373520983252</v>
       </c>
       <c r="AG80">
         <f t="shared" si="8"/>
-        <v>1.303976966930007</v>
+        <v>1.1783043427500484</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.3">
@@ -15587,11 +13909,11 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3.9215137803694233E-2</v>
+        <v>0.49030177251552232</v>
       </c>
       <c r="L81">
         <f t="shared" si="9"/>
-        <v>0.7413180608408213</v>
+        <v>0.93202201243445093</v>
       </c>
       <c r="M81">
         <f t="shared" si="5"/>
@@ -15604,36 +13926,36 @@
       <c r="O81">
         <v>79</v>
       </c>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
       <c r="AC81">
         <v>79</v>
       </c>
       <c r="AD81">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC81+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC81)),2))/(2*(100 - AC81))</f>
-        <v>2.2380029804884898</v>
+        <v>2.025337261396587</v>
       </c>
       <c r="AE81">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC81+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC81)))))/(100-AC81),4)/(2*(0.457+0.494/(100-AC81)+0.045/POWER(100-AC81,2)))</f>
-        <v>2.1290481444631975</v>
+        <v>1.5720213572192847</v>
       </c>
       <c r="AF81">
         <f t="shared" si="7"/>
-        <v>0.76199701951151022</v>
+        <v>0.97466273860341301</v>
       </c>
       <c r="AG81">
         <f t="shared" si="8"/>
-        <v>0.87095185553680254</v>
+        <v>1.4279786427807153</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.3">
@@ -15641,11 +13963,11 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.499467205372639</v>
+        <v>-0.34910272006527521</v>
       </c>
       <c r="L82">
         <f t="shared" si="9"/>
-        <v>1.0087025988527851</v>
+        <v>-0.38145704648637113</v>
       </c>
       <c r="M82">
         <f t="shared" si="5"/>
@@ -15658,36 +13980,36 @@
       <c r="O82">
         <v>80</v>
       </c>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
       <c r="AC82">
         <v>80</v>
       </c>
       <c r="AD82">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC82+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC82)),2))/(2*(100 - AC82))</f>
-        <v>1.7156869550337448</v>
+        <v>2.8855149713640271</v>
       </c>
       <c r="AE82">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC82+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC82)))))/(100-AC82),4)/(2*(0.457+0.494/(100-AC82)+0.045/POWER(100-AC82,2)))</f>
-        <v>1.5708038025309348</v>
+        <v>3.0916681560558019</v>
       </c>
       <c r="AF82">
         <f t="shared" si="7"/>
-        <v>1.2843130449662552</v>
+        <v>0.11448502863597287</v>
       </c>
       <c r="AG82">
         <f t="shared" si="8"/>
-        <v>1.4291961974690652</v>
+        <v>-9.1668156055801919E-2</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.3">
@@ -15695,11 +14017,11 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1.0705502972996328</v>
+        <v>0.91933316070935689</v>
       </c>
       <c r="L83">
         <f t="shared" si="9"/>
-        <v>-1.5824274701832504</v>
+        <v>1.4670723545562834</v>
       </c>
       <c r="M83">
         <f t="shared" si="5"/>
@@ -15712,36 +14034,36 @@
       <c r="O83">
         <v>81</v>
       </c>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
       <c r="AC83">
         <v>81</v>
       </c>
       <c r="AD83">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC83+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC83)),2))/(2*(100 - AC83))</f>
-        <v>1.7483909983992185</v>
+        <v>3.0531594091985936</v>
       </c>
       <c r="AE83">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC83+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC83)))))/(100-AC83),4)/(2*(0.457+0.494/(100-AC83)+0.045/POWER(100-AC83,2)))</f>
-        <v>2.0654529968964077</v>
+        <v>3.3255858179350284</v>
       </c>
       <c r="AF83">
         <f t="shared" si="7"/>
-        <v>1.2516090016007815</v>
+        <v>-5.3159409198593632E-2</v>
       </c>
       <c r="AG83">
         <f t="shared" si="8"/>
-        <v>0.93454700310359229</v>
+        <v>-0.32558581793502839</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.3">
@@ -15749,11 +14071,11 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.16727653928683139</v>
+        <v>4.8634092308930121E-2</v>
       </c>
       <c r="L84">
         <f t="shared" si="9"/>
-        <v>-0.63551424132774126</v>
+        <v>0.40946108771949652</v>
       </c>
       <c r="M84">
         <f t="shared" si="5"/>
@@ -15766,36 +14088,36 @@
       <c r="O84">
         <v>82</v>
       </c>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
       <c r="AC84">
         <v>82</v>
       </c>
       <c r="AD84">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC84+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC84)),2))/(2*(100 - AC84))</f>
-        <v>1.7615970228165088</v>
+        <v>2.8475090908168412</v>
       </c>
       <c r="AE84">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC84+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC84)))))/(100-AC84),4)/(2*(0.457+0.494/(100-AC84)+0.045/POWER(100-AC84,2)))</f>
-        <v>1.9646435157013098</v>
+        <v>3.1680678299712541</v>
       </c>
       <c r="AF84">
         <f t="shared" si="7"/>
-        <v>1.2384029771834912</v>
+        <v>0.15249090918315877</v>
       </c>
       <c r="AG84">
         <f t="shared" si="8"/>
-        <v>1.0353564842986902</v>
+        <v>-0.16806782997125413</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.3">
@@ -15803,11 +14125,11 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.26860789148486219</v>
+        <v>-1.0681105777621269</v>
       </c>
       <c r="L85">
         <f t="shared" si="9"/>
-        <v>-0.59531552256470899</v>
+        <v>-1.7120171423530628</v>
       </c>
       <c r="M85">
         <f t="shared" si="5"/>
@@ -15820,36 +14142,36 @@
       <c r="O85">
         <v>83</v>
       </c>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
       <c r="AC85">
         <v>83</v>
       </c>
       <c r="AD85">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC85+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC85)),2))/(2*(100 - AC85))</f>
-        <v>1.2039329415241391</v>
+        <v>2.5602394494525065</v>
       </c>
       <c r="AE85">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC85+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC85)))))/(100-AC85),4)/(2*(0.457+0.494/(100-AC85)+0.045/POWER(100-AC85,2)))</f>
-        <v>1.1284711609714535</v>
+        <v>1.738582074703126</v>
       </c>
       <c r="AF85">
         <f t="shared" si="7"/>
-        <v>1.7960670584758609</v>
+        <v>0.43976055054749352</v>
       </c>
       <c r="AG85">
         <f t="shared" si="8"/>
-        <v>1.8715288390285465</v>
+        <v>1.261417925296874</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.3">
@@ -15857,11 +14179,11 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.81652956396283116</v>
+        <v>0.93107018983573653</v>
       </c>
       <c r="L86">
         <f t="shared" si="9"/>
-        <v>-1.5114478792964403</v>
+        <v>1.1900008734269867</v>
       </c>
       <c r="M86">
         <f t="shared" si="5"/>
@@ -15874,36 +14196,36 @@
       <c r="O86">
         <v>84</v>
       </c>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
       <c r="AC86">
         <v>84</v>
       </c>
       <c r="AD86">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC86+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC86)),2))/(2*(100 - AC86))</f>
-        <v>2.1089073062394004</v>
+        <v>3.4363032995408984</v>
       </c>
       <c r="AE86">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC86+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC86)))))/(100-AC86),4)/(2*(0.457+0.494/(100-AC86)+0.045/POWER(100-AC86,2)))</f>
-        <v>2.4378682065255894</v>
+        <v>2.4488538332227114</v>
       </c>
       <c r="AF86">
         <f t="shared" si="7"/>
-        <v>0.89109269376059963</v>
+        <v>-0.43630329954089841</v>
       </c>
       <c r="AG86">
         <f t="shared" si="8"/>
-        <v>0.56213179347441056</v>
+        <v>0.55114616677728856</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.3">
@@ -15911,11 +14233,11 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.22263861865212675</v>
+        <v>1.54909685079474E-2</v>
       </c>
       <c r="L87">
         <f t="shared" si="9"/>
-        <v>3.864975965527101E-2</v>
+        <v>0.29167978087136553</v>
       </c>
       <c r="M87">
         <f t="shared" si="5"/>
@@ -15928,36 +14250,36 @@
       <c r="O87">
         <v>85</v>
       </c>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
       <c r="AC87">
         <v>85</v>
       </c>
       <c r="AD87">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC87+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC87)),2))/(2*(100 - AC87))</f>
-        <v>1.3284087114276766</v>
+        <v>3.9330593099841575</v>
       </c>
       <c r="AE87">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC87+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC87)))))/(100-AC87),4)/(2*(0.457+0.494/(100-AC87)+0.045/POWER(100-AC87,2)))</f>
-        <v>1.4207561093868839</v>
+        <v>4.1667469951823382</v>
       </c>
       <c r="AF87">
         <f t="shared" si="7"/>
-        <v>1.6715912885723234</v>
+        <v>-0.93305930998415754</v>
       </c>
       <c r="AG87">
         <f t="shared" si="8"/>
-        <v>1.5792438906131161</v>
+        <v>-1.1667469951823382</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.3">
@@ -15965,11 +14287,11 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.75171328717260621</v>
+        <v>0.3593663677747827</v>
       </c>
       <c r="L88">
         <f t="shared" si="9"/>
-        <v>1.277804227129985</v>
+        <v>0.67183079689673397</v>
       </c>
       <c r="M88">
         <f t="shared" si="5"/>
@@ -15982,36 +14304,36 @@
       <c r="O88">
         <v>86</v>
       </c>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
       <c r="AC88">
         <v>86</v>
       </c>
       <c r="AD88">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC88+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC88)),2))/(2*(100 - AC88))</f>
-        <v>1.825911721669613</v>
+        <v>4.5344109861940041</v>
       </c>
       <c r="AE88">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC88+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC88)))))/(100-AC88),4)/(2*(0.457+0.494/(100-AC88)+0.045/POWER(100-AC88,2)))</f>
-        <v>2.052122570574535</v>
+        <v>4.5138891434357191</v>
       </c>
       <c r="AF88">
         <f t="shared" si="7"/>
-        <v>1.174088278330387</v>
+        <v>-1.5344109861940041</v>
       </c>
       <c r="AG88">
         <f t="shared" si="8"/>
-        <v>0.94787742942546505</v>
+        <v>-1.5138891434357191</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.3">
@@ -16019,11 +14341,11 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-0.34593426789797377</v>
+        <v>-1.1754514162021223</v>
       </c>
       <c r="L89">
         <f t="shared" si="9"/>
-        <v>-0.29895304323027072</v>
+        <v>-1.8347070460930868</v>
       </c>
       <c r="M89">
         <f t="shared" si="5"/>
@@ -16036,36 +14358,36 @@
       <c r="O89">
         <v>87</v>
       </c>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
       <c r="AC89">
         <v>87</v>
       </c>
       <c r="AD89">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC89+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC89)),2))/(2*(100 - AC89))</f>
-        <v>2.2772887660872945</v>
+        <v>2.9705195820904646</v>
       </c>
       <c r="AE89">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC89+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC89)))))/(100-AC89),4)/(2*(0.457+0.494/(100-AC89)+0.045/POWER(100-AC89,2)))</f>
-        <v>1.8267641073497298</v>
+        <v>3.1792650596718679</v>
       </c>
       <c r="AF89">
         <f t="shared" si="7"/>
-        <v>0.72271123391270553</v>
+        <v>2.9480417909535372E-2</v>
       </c>
       <c r="AG89">
         <f t="shared" si="8"/>
-        <v>1.1732358926502702</v>
+        <v>-0.1792650596718679</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.3">
@@ -16073,11 +14395,11 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.69088287091290113</v>
+        <v>-0.6284949449764099</v>
       </c>
       <c r="L90">
         <f t="shared" si="9"/>
-        <v>-1.2331806702380779</v>
+        <v>-1.4705189629851358</v>
       </c>
       <c r="M90">
         <f t="shared" si="5"/>
@@ -16095,19 +14417,19 @@
       </c>
       <c r="AD90">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC90+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC90)),2))/(2*(100 - AC90))</f>
-        <v>1.5506355178530422</v>
+        <v>2.4982080917342682</v>
       </c>
       <c r="AE90">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC90+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC90)))))/(100-AC90),4)/(2*(0.457+0.494/(100-AC90)+0.045/POWER(100-AC90,2)))</f>
-        <v>1.5555724113005935</v>
+        <v>3.3518989335159626</v>
       </c>
       <c r="AF90">
         <f t="shared" si="7"/>
-        <v>1.4493644821469578</v>
+        <v>0.50179190826573183</v>
       </c>
       <c r="AG90">
         <f t="shared" si="8"/>
-        <v>1.4444275886994065</v>
+        <v>-0.35189893351596258</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.3">
@@ -16115,11 +14437,11 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.059222540789051</v>
+        <v>1.2215718925290275</v>
       </c>
       <c r="L91">
         <f t="shared" si="9"/>
-        <v>1.513214045142367</v>
+        <v>1.7343646782696192</v>
       </c>
       <c r="M91">
         <f t="shared" si="5"/>
@@ -16137,19 +14459,19 @@
       </c>
       <c r="AD91">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC91+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC91)),2))/(2*(100 - AC91))</f>
-        <v>1.8504864456359209</v>
+        <v>3.808413802451919</v>
       </c>
       <c r="AE91">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC91+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC91)))))/(100-AC91),4)/(2*(0.457+0.494/(100-AC91)+0.045/POWER(100-AC91,2)))</f>
-        <v>1.0994987070328865</v>
+        <v>2.8814812946060337</v>
       </c>
       <c r="AF91">
         <f t="shared" si="7"/>
-        <v>1.1495135543640791</v>
+        <v>-0.80841380245191896</v>
       </c>
       <c r="AG91">
         <f t="shared" si="8"/>
-        <v>1.9005012929671135</v>
+        <v>0.11851870539396625</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.3">
@@ -16157,11 +14479,11 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-1.0536086847423576</v>
+        <v>1.3362659956328571</v>
       </c>
       <c r="L92">
         <f t="shared" si="9"/>
-        <v>-1.4412518115125472</v>
+        <v>2.6431185079913559</v>
       </c>
       <c r="M92">
         <f t="shared" si="5"/>
@@ -16179,19 +14501,19 @@
       </c>
       <c r="AD92">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC92+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC92)),2))/(2*(100 - AC92))</f>
-        <v>2.9995482468083958</v>
+        <v>4.3594357937337689</v>
       </c>
       <c r="AE92">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC92+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC92)))))/(100-AC92),4)/(2*(0.457+0.494/(100-AC92)+0.045/POWER(100-AC92,2)))</f>
-        <v>2.8420230306789254</v>
+        <v>3.6137717480234466</v>
       </c>
       <c r="AF92">
         <f t="shared" si="7"/>
-        <v>4.5175319160417615E-4</v>
+        <v>-1.3594357937337689</v>
       </c>
       <c r="AG92">
         <f t="shared" si="8"/>
-        <v>0.15797696932107463</v>
+        <v>-0.61377174802344658</v>
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.3">
@@ -16199,11 +14521,11 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.78605125963804312</v>
+        <v>-9.8498276202008128E-2</v>
       </c>
       <c r="L93">
         <f t="shared" si="9"/>
-        <v>1.0055692181956</v>
+        <v>0.42345659306673755</v>
       </c>
       <c r="M93">
         <f t="shared" si="5"/>
@@ -16221,19 +14543,19 @@
       </c>
       <c r="AD93">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC93+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC93)),2))/(2*(100 - AC93))</f>
-        <v>1.8109147734019437</v>
+        <v>2.9051426644107696</v>
       </c>
       <c r="AE93">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC93+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC93)))))/(100-AC93),4)/(2*(0.457+0.494/(100-AC93)+0.045/POWER(100-AC93,2)))</f>
-        <v>2.0839721256548862</v>
+        <v>3.5894970434409412</v>
       </c>
       <c r="AF93">
         <f t="shared" si="7"/>
-        <v>1.1890852265980563</v>
+        <v>9.4857335589230374E-2</v>
       </c>
       <c r="AG93">
         <f t="shared" si="8"/>
-        <v>0.91602787434511379</v>
+        <v>-0.58949704344094123</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.3">
@@ -16241,11 +14563,11 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.80865447671385482</v>
+        <v>0.24898895389924292</v>
       </c>
       <c r="L94">
         <f t="shared" si="9"/>
-        <v>-1.1409460434515357</v>
+        <v>0.51487477532034298</v>
       </c>
       <c r="M94">
         <f t="shared" si="5"/>
@@ -16263,19 +14585,19 @@
       </c>
       <c r="AD94">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC94+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC94)),2))/(2*(100 - AC94))</f>
-        <v>2.3835548974087706</v>
+        <v>2.4204347239998385</v>
       </c>
       <c r="AE94">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC94+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC94)))))/(100-AC94),4)/(2*(0.457+0.494/(100-AC94)+0.045/POWER(100-AC94,2)))</f>
-        <v>2.5719356244362563</v>
+        <v>2.9703363942940726</v>
       </c>
       <c r="AF94">
         <f t="shared" si="7"/>
-        <v>0.61644510259122942</v>
+        <v>0.5795652760001615</v>
       </c>
       <c r="AG94">
         <f t="shared" si="8"/>
-        <v>0.42806437556374366</v>
+        <v>2.9663605705927409E-2</v>
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.3">
@@ -16283,11 +14605,11 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.85437932284548879</v>
+        <v>-0.19137587514705956</v>
       </c>
       <c r="L95">
         <f t="shared" si="9"/>
-        <v>1.1879404658481327</v>
+        <v>-0.20823177609240878</v>
       </c>
       <c r="M95">
         <f t="shared" si="5"/>
@@ -16305,19 +14627,19 @@
       </c>
       <c r="AD95">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC95+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC95)),2))/(2*(100 - AC95))</f>
-        <v>2.992221576518113</v>
+        <v>1.5895713495748651</v>
       </c>
       <c r="AE95">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC95+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC95)))))/(100-AC95),4)/(2*(0.457+0.494/(100-AC95)+0.045/POWER(100-AC95,2)))</f>
-        <v>3.0700125083322756</v>
+        <v>2.0631699306212612</v>
       </c>
       <c r="AF95">
         <f t="shared" si="7"/>
-        <v>7.7784234818869535E-3</v>
+        <v>1.4104286504251349</v>
       </c>
       <c r="AG95">
         <f t="shared" si="8"/>
-        <v>-7.0012508332275569E-2</v>
+        <v>0.93683006937873881</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.3">
@@ -16325,11 +14647,11 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.68632516558864154</v>
+        <v>1.2122700354666449</v>
       </c>
       <c r="L96">
         <f t="shared" si="9"/>
-        <v>-0.8937147290314349</v>
+        <v>2.0003139185835273</v>
       </c>
       <c r="M96">
         <f t="shared" si="5"/>
@@ -16347,19 +14669,19 @@
       </c>
       <c r="AD96">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC96+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC96)),2))/(2*(100 - AC96))</f>
-        <v>2.1014391411423792</v>
+        <v>5.1705405764651839</v>
       </c>
       <c r="AE96">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC96+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC96)))))/(100-AC96),4)/(2*(0.457+0.494/(100-AC96)+0.045/POWER(100-AC96,2)))</f>
-        <v>2.4428478046789044</v>
+        <v>5.1288362116150124</v>
       </c>
       <c r="AF96">
         <f t="shared" si="7"/>
-        <v>0.89856085885762083</v>
+        <v>-2.1705405764651839</v>
       </c>
       <c r="AG96">
         <f t="shared" si="8"/>
-        <v>0.55715219532109561</v>
+        <v>-2.1288362116150124</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.3">
@@ -16367,11 +14689,11 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.71962631409405731</v>
+        <v>-0.81035295806941576</v>
       </c>
       <c r="L97">
         <f t="shared" si="9"/>
-        <v>-1.4144198952312148</v>
+        <v>-0.92185618701873051</v>
       </c>
       <c r="M97">
         <f t="shared" si="5"/>
@@ -16389,19 +14711,19 @@
       </c>
       <c r="AD97">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC97+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC97)),2))/(2*(100 - AC97))</f>
-        <v>2.0059815210692311</v>
+        <v>6.7307191653218892</v>
       </c>
       <c r="AE97">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC97+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC97)))))/(100-AC97),4)/(2*(0.457+0.494/(100-AC97)+0.045/POWER(100-AC97,2)))</f>
-        <v>2.3087341889714361</v>
+        <v>4.1181284043469661</v>
       </c>
       <c r="AF97">
         <f t="shared" si="7"/>
-        <v>0.99401847893076889</v>
+        <v>-3.7307191653218892</v>
       </c>
       <c r="AG97">
         <f t="shared" si="8"/>
-        <v>0.69126581102856388</v>
+        <v>-1.1181284043469661</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.3">
@@ -16409,11 +14731,11 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.96463736554142088</v>
+        <v>-2.2391395759768784</v>
       </c>
       <c r="L98">
         <f t="shared" si="9"/>
-        <v>1.3130780599611966</v>
+        <v>-3.9862202009741905</v>
       </c>
       <c r="M98">
         <f t="shared" si="5"/>
@@ -16431,19 +14753,19 @@
       </c>
       <c r="AD98">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC98+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC98)),2))/(2*(100 - AC98))</f>
-        <v>1.195040929404974</v>
+        <v>5.4738133886148832</v>
       </c>
       <c r="AE98">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC98+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC98)))))/(100-AC98),4)/(2*(0.457+0.494/(100-AC98)+0.045/POWER(100-AC98,2)))</f>
-        <v>0.86294584681851061</v>
+        <v>3.5309119988788642</v>
       </c>
       <c r="AF98">
         <f t="shared" si="7"/>
-        <v>1.804959070595026</v>
+        <v>-2.4738133886148832</v>
       </c>
       <c r="AG98">
         <f t="shared" si="8"/>
-        <v>2.1370541531814893</v>
+        <v>-0.5309119988788642</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.3">
@@ -16451,11 +14773,11 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.55806594900786877</v>
+        <v>-1.3383214536588639</v>
       </c>
       <c r="L99">
         <f t="shared" si="9"/>
-        <v>-0.64924201444835017</v>
+        <v>-3.1490457927902806</v>
       </c>
       <c r="M99">
         <f t="shared" si="5"/>
@@ -16473,19 +14795,19 @@
       </c>
       <c r="AD99">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC99+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC99)),2))/(2*(100 - AC99))</f>
-        <v>0.51987287270767923</v>
+        <v>2.6124788509493295</v>
       </c>
       <c r="AE99">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC99+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC99)))))/(100-AC99),4)/(2*(0.457+0.494/(100-AC99)+0.045/POWER(100-AC99,2)))</f>
-        <v>0.13367316945833582</v>
+        <v>1.78543452954002</v>
       </c>
       <c r="AF99">
         <f t="shared" si="7"/>
-        <v>2.4801271272923207</v>
+        <v>0.38752114905067048</v>
       </c>
       <c r="AG99">
         <f t="shared" si="8"/>
-        <v>2.8663268305416643</v>
+        <v>1.21456547045998</v>
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.3">
@@ -16493,11 +14815,11 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.055877874023281</v>
+        <v>1.6868852981133386E-2</v>
       </c>
       <c r="L100">
         <f t="shared" si="9"/>
-        <v>1.6378612907929813</v>
+        <v>-0.67416599926342857</v>
       </c>
       <c r="M100">
         <f t="shared" si="5"/>
@@ -16515,19 +14837,19 @@
       </c>
       <c r="AD100">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC100+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC100)),2))/(2*(100 - AC100))</f>
-        <v>0.15002772641984524</v>
+        <v>3.8444585383282623</v>
       </c>
       <c r="AE100">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC100+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC100)))))/(100-AC100),4)/(2*(0.457+0.494/(100-AC100)+0.045/POWER(100-AC100,2)))</f>
-        <v>0.20934568251175484</v>
+        <v>4.6665996409191388</v>
       </c>
       <c r="AF100">
         <f t="shared" si="7"/>
-        <v>2.8499722735801547</v>
+        <v>-0.84445853832826234</v>
       </c>
       <c r="AG100">
         <f t="shared" si="8"/>
-        <v>2.790654317488245</v>
+        <v>-1.6665996409191388</v>
       </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.3">
@@ -16535,11 +14857,11 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.0024814400821924</v>
+        <v>-0.10434177966089919</v>
       </c>
       <c r="L101">
         <f t="shared" si="9"/>
-        <v>2.0580293603043076</v>
+        <v>-0.32659570503374391</v>
       </c>
       <c r="M101">
         <f t="shared" si="5"/>
@@ -16557,19 +14879,19 @@
       </c>
       <c r="AD101">
         <f>SUMPRODUCT(POWER((INDEX($L$2:$L$101,AC101+1):$L$101)-($L$2:INDEX($L$2:$L$101,100 - AC101)),2))/(2*(100 - AC101))</f>
-        <v>0.44917367108014833</v>
+        <v>2.3678584725115197</v>
       </c>
       <c r="AE101">
         <f>POWER(SUMPRODUCT(SQRT(ABS((INDEX($L$2:$L$101,AC101+1):$L$101)-($L$2:INDEX($L$2:$L$101,100-AC101)))))/(100-AC101),4)/(2*(0.457+0.494/(100-AC101)+0.045/POWER(100-AC101,2)))</f>
-        <v>0.45097758140577138</v>
+        <v>2.3773679442886757</v>
       </c>
       <c r="AF101">
         <f t="shared" si="7"/>
-        <v>2.5508263289198516</v>
+        <v>0.63214152748848029</v>
       </c>
       <c r="AG101">
         <f t="shared" si="8"/>
-        <v>2.5490224185942285</v>
+        <v>0.62263205571132429</v>
       </c>
     </row>
   </sheetData>
@@ -16581,4 +14903,519 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1C19CD-B9B1-438A-B656-93CAFF669032}">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9">
+        <v>0.65756239564507268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>0.73627688834676519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>0.99592853075591847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>-0.34455297281965613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>0.13995077097206376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>-0.67706082518270705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>-0.86344925875891931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>-0.45641627366421744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>-0.20448169379960746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>-1.7142156139016151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>1.0321309673599899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>0.46449599722109269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>-1.2811506167054176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>0.38091229725978337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>-0.16556896298425272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>0.47963226279534865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>1.3511680663214065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>-0.26282236831320915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>0.36958454074920155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>0.48788706408231519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>-2.0070910977665335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>0.3928664682462113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>-0.62142817114363424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>-0.96792973636183888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>1.7848742572823539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>-0.19137587514705956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>2.3113534552976489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>-0.13385033525992185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>-1.2265900295460597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>-1.8948867364088073</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>-2.5114422896876931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>2.3743632482364774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>-0.17247657524421811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>2.3642496671527624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>1.8511354937800206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>0.47397520575032104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>-0.60959337133681402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>0.86589579950668849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>-0.52230461733415723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>2.4956170818768442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>-0.11126644494652282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>0.67273731474415399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>-0.19628600966825616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>-9.5192262961063534E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>1.7787442629924044E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>-0.35838638723362237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>1.2352370504231658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>-0.34999743547814433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>-0.71487647801404819</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>0.78876382758608088</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>-2.0082370610907674</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>3.2971729524433613</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>2.6816451281774789E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>0.29295733838807791</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>2.2682070266455412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>1.4420038496609777E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>-0.11865950000355951</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>-0.29271859602886252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>1.7089178072637878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>0.19683284335769713</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>1.2165855878265575</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>-0.29927150535513647</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>-0.60123284129076637</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>-1.8422997527522966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>-0.56039084483927581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>1.5047453416627832</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>-0.68516328610712662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>0.25973577066906728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>-2.4609835236333311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>0.8873530532582663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>8.3595068645081483E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>1.1448628356447443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>-1.298019469686551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>1.4936858860892244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>0.50172161536465865</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>0.75425305112730712</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>-7.8146058513084427E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>2.0495645003393292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>1.3282738109410275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>3.9215137803694233E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <v>0.499467205372639</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <v>-1.0705502972996328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>-0.16727653928683139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <v>-0.26860789148486219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <v>-0.81652956396283116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <v>0.22263861865212675</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <v>0.75171328717260621</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
+        <v>-0.34593426789797377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <v>-0.69088287091290113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>1.059222540789051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
+        <v>-1.0536086847423576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <v>0.78605125963804312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>-0.80865447671385482</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <v>0.85437932284548879</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>-0.68632516558864154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <v>-0.71962631409405731</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <v>0.96463736554142088</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
+        <v>-0.55806594900786877</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
+        <v>1.055877874023281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
+        <v>1.0024814400821924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>